--- a/data/hotels_by_city/Denver/Denver_shard_208.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_208.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="668">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d85633-Reviews-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Quality-Inn-Suites-Denver-North-Westminster.h79280.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1936 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r584104033-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>85633</t>
+  </si>
+  <si>
+    <t>584104033</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Not the worst, not the best</t>
+  </si>
+  <si>
+    <t>Business trip 6 nights.Online res easy as always.Upon check in:1.  Did not recognize me as a rewards member.2.  ***Forced to pay up front the entire bill of nearly $900*** WTFThe staff is very friendly.Room was clean and towels nice.The bed not very comfortable and all pillows too soft.Bath tub creaked so much standing in shower, thought I was to fall through any second.***TV sits on a low wide dresser that is no higher than the bed so forget watching TV in bed.  Major con****Wifi drops off constantly.  It required me to log back in 30 minutes, 2 hours or 6 hours.  You never know.  Wifi was strong enough to watch NetFlix on my fire stick.  Good, but bad.Good location and parking.It's not a bad place to stay if the Wifi, TV height was fixed AND you didn't have to pay more than 1 night at a time in advance.  I travel a lot and never been charged in advance.  My 2 week stays would kill me!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Business trip 6 nights.Online res easy as always.Upon check in:1.  Did not recognize me as a rewards member.2.  ***Forced to pay up front the entire bill of nearly $900*** WTFThe staff is very friendly.Room was clean and towels nice.The bed not very comfortable and all pillows too soft.Bath tub creaked so much standing in shower, thought I was to fall through any second.***TV sits on a low wide dresser that is no higher than the bed so forget watching TV in bed.  Major con****Wifi drops off constantly.  It required me to log back in 30 minutes, 2 hours or 6 hours.  You never know.  Wifi was strong enough to watch NetFlix on my fire stick.  Good, but bad.Good location and parking.It's not a bad place to stay if the Wifi, TV height was fixed AND you didn't have to pay more than 1 night at a time in advance.  I travel a lot and never been charged in advance.  My 2 week stays would kill me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r583184092-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>583184092</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Hotel in area</t>
+  </si>
+  <si>
+    <t>Attending HS Graduation in area and needed a hotel near the home of relatives for 2 nights.  I found this hotel to be expensive even for a king room compared to other Choice Hotels we stayed with travelling to and from this event.  The room was large with a small couch and desk area (on 2nd floor so could hear foot noises).  The breakfast was your usual hot breakfast bar.  The staff was pleasant.  The parking not the most convenient. Nothing special to justify the rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r582529104-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>582529104</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>So Close....</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights.  Checking in Monday and checking out on ThursdayRoom 101A+ - Check In - Quick and the staff is polite.  No issuesA - Room -  Clean, plenty of spaceA - Bed - Comfortable, plenty of pillowsB+ - Shower - It was good and hot, plenty of towels.  Shower controls were broken, but you could still get the shower to workA - Restaurants - Plenty within walking distance. (Cracker Barrel, Village Inn) and if you want to drive, anything you want within 2 miles.A+ - Running - As it is anywhere in the Denver area, it is great.  Plenty of paths that go right past the hotel.D - TV - Not good. The lobby had ESPN, TNT, TBS, etc.  Rooms did not have the same selection, very few channels. No HD channelsF - Wifi - Horrible It dropped continually, and was weak.  C - Housekeeping - Passing grade, but not high.  They did not vacuum, any of the 3 days.There is nothing terribly wrong with this location and it is good place for a one night stay.  But if you are staying multiple nights, the things that make it inviting aren't there for you.  (Wifi, TV, etc.)Final Grade - BMoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights.  Checking in Monday and checking out on ThursdayRoom 101A+ - Check In - Quick and the staff is polite.  No issuesA - Room -  Clean, plenty of spaceA - Bed - Comfortable, plenty of pillowsB+ - Shower - It was good and hot, plenty of towels.  Shower controls were broken, but you could still get the shower to workA - Restaurants - Plenty within walking distance. (Cracker Barrel, Village Inn) and if you want to drive, anything you want within 2 miles.A+ - Running - As it is anywhere in the Denver area, it is great.  Plenty of paths that go right past the hotel.D - TV - Not good. The lobby had ESPN, TNT, TBS, etc.  Rooms did not have the same selection, very few channels. No HD channelsF - Wifi - Horrible It dropped continually, and was weak.  C - Housekeeping - Passing grade, but not high.  They did not vacuum, any of the 3 days.There is nothing terribly wrong with this location and it is good place for a one night stay.  But if you are staying multiple nights, the things that make it inviting aren't there for you.  (Wifi, TV, etc.)Final Grade - BMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r554217783-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>554217783</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Generally OK</t>
+  </si>
+  <si>
+    <t>This motel passed on all of the important issues in my mind. Most importantly the room and the bathroom were very clean. The bed was comfortable, although the nice blanket was short. I'd like them to cover my shoulders and this one did not.  The worse things about the room where that the bathroom was very small and the shower was creepy.  There was only a couple of inches between the door and toilet.  Very upsetting was the cheap tub insert.  It was small (elbows hit the wall on one side and the curtain on the other when washing my hair) and the floor had a terrible LOUD creak every time you moved!!  For some reason the shower curtain would not stay at the ends and slide toward the center.  All the staff were very pleasant and helpful as was the night desk lady, but the piercings in her nose gave me the hebejebees!  Seems to me that those should be left out when you come to work at a place like this. Lowers my view of the motel.  Breakfast also was good and room attended to frequently and kept neat and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>This motel passed on all of the important issues in my mind. Most importantly the room and the bathroom were very clean. The bed was comfortable, although the nice blanket was short. I'd like them to cover my shoulders and this one did not.  The worse things about the room where that the bathroom was very small and the shower was creepy.  There was only a couple of inches between the door and toilet.  Very upsetting was the cheap tub insert.  It was small (elbows hit the wall on one side and the curtain on the other when washing my hair) and the floor had a terrible LOUD creak every time you moved!!  For some reason the shower curtain would not stay at the ends and slide toward the center.  All the staff were very pleasant and helpful as was the night desk lady, but the piercings in her nose gave me the hebejebees!  Seems to me that those should be left out when you come to work at a place like this. Lowers my view of the motel.  Breakfast also was good and room attended to frequently and kept neat and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r550091720-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>550091720</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>I stayed here while passing through Denver returning from Christmas with family. The property is easy to reach off of I-25. The owner was very friendly and welcoming. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here while passing through Denver returning from Christmas with family. The property is easy to reach off of I-25. The owner was very friendly and welcoming. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r544334520-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>544334520</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Best place in the area</t>
+  </si>
+  <si>
+    <t>Nice location,  Near to restaurants and great breakfast,  specially in the weekends. Lovely customer service.  Sarah is the best front desk agent ever. Pool closes until 11 pm.  I really recommend this hotel.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r539836595-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>539836595</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet, with friendly staff and nice breakfast! </t>
+  </si>
+  <si>
+    <t>I was greeted nicely by front desk staff. Hotel is extremely quiet and great for relaxing. The pool is heated and the best temperature, along with the hot tub. Rooms are spacious and comfortable with a microwave and fridge. Cleaning staff are so nice and my room has been well serviced for my week long stay. Close to numerous restaurants and the breakfast each morning is different, but the choices are amazing also! I highly recommend staying here! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>I was greeted nicely by front desk staff. Hotel is extremely quiet and great for relaxing. The pool is heated and the best temperature, along with the hot tub. Rooms are spacious and comfortable with a microwave and fridge. Cleaning staff are so nice and my room has been well serviced for my week long stay. Close to numerous restaurants and the breakfast each morning is different, but the choices are amazing also! I highly recommend staying here! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r527683687-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>527683687</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>What a great staff!</t>
+  </si>
+  <si>
+    <t>My husband had an early morning surgery so we arrived at the hotel at 9:30 AM, not expecting to be able to check in until afternoon. The desk clerk, Alex, was extremely pleasant and accommodating--we were in our room in 10 minutes. He made sure we had a quiet room so my husband could rest. The room was large, comfortable and well-appointed. Throughout our stay, the rest of the staff was helpful and cheerful. They made a not-too-pleasant experience into a more tolerable one! In addition to Alex, Verania, in reception, and Amanda, in housekeeping, were also very helpful. We plan to stay there again tomorrow following my husband's appointment with the doctor.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>My husband had an early morning surgery so we arrived at the hotel at 9:30 AM, not expecting to be able to check in until afternoon. The desk clerk, Alex, was extremely pleasant and accommodating--we were in our room in 10 minutes. He made sure we had a quiet room so my husband could rest. The room was large, comfortable and well-appointed. Throughout our stay, the rest of the staff was helpful and cheerful. They made a not-too-pleasant experience into a more tolerable one! In addition to Alex, Verania, in reception, and Amanda, in housekeeping, were also very helpful. We plan to stay there again tomorrow following my husband's appointment with the doctor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r527070700-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>527070700</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Save your money</t>
+  </si>
+  <si>
+    <t>I travel all the time for work (flight attendant) - and all I need is a clean and comfortable room. Our bathroom was dirty, and our bed was so uncomfortable (no support) - I say save your money with this one and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>I travel all the time for work (flight attendant) - and all I need is a clean and comfortable room. Our bathroom was dirty, and our bed was so uncomfortable (no support) - I say save your money with this one and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r496710205-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>496710205</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Not too shabby!</t>
+  </si>
+  <si>
+    <t>I tend to avoid Choice hotels because of the inconsistency of quality between hotels. This hotel, however, is one of the better ones. The bed and bathroom were really clean. Looks like they've been making an effort in updating. Only reason why I give it a rating of 4 is the internet. Slows down drastically as more people get into their rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>I tend to avoid Choice hotels because of the inconsistency of quality between hotels. This hotel, however, is one of the better ones. The bed and bathroom were really clean. Looks like they've been making an effort in updating. Only reason why I give it a rating of 4 is the internet. Slows down drastically as more people get into their rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r496310277-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>496310277</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Easy Access from I-25, Not So Much from 120th</t>
+  </si>
+  <si>
+    <t>This stay was average. The hotel is hidden behind another hotel and the access is difficult if coming from the west on 120th. Luckily, we were familiar with this area and were able to do some turnarounds and work our way to the shared entrance. Coming off of I-25 is very easy however. The accommodations were average but acceptable due to meeting the following morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r487542314-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>487542314</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Ok, I guess</t>
+  </si>
+  <si>
+    <t>I guess I have become too particular for most places. I want things like a working tub drain (which I took apart and removed the mass of hair). Other things like a curtain rod for the shower that is securely mounted. The front desk help were nice except for the one gentleman who worked overnight that cared more about his phone than making sure the coffee was warm for early risers. Other than the homeless population that seems to hang out in the parking lot, it's a decent place. Would I stay here again, maybe.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>I guess I have become too particular for most places. I want things like a working tub drain (which I took apart and removed the mass of hair). Other things like a curtain rod for the shower that is securely mounted. The front desk help were nice except for the one gentleman who worked overnight that cared more about his phone than making sure the coffee was warm for early risers. Other than the homeless population that seems to hang out in the parking lot, it's a decent place. Would I stay here again, maybe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r466127806-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>466127806</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>I stayed over a weekend, my original plan was to say two nights, but my stay was so horrible I ended up only staying one night! 
+I was not informed that the hotel was under construction when I booked my stay. When I checked in, they struggled to find my reservation, then gave me a room, when assigning my room they said my room number out loud, and loud enough that the other guests in the lobby knew which room I was staying. This made me uncomfortable as a solo traveler. When I got to the assigned room, it was filled with construction workers since it was being remodeled. I then went to the front desk to ask for a different room, again when I was assigned a new room the girl at the front desk loudly said my room number, this time other guests heard and even commented that they were staying next door! 
+When I went to my second room the door would not open, I again had to go to the front desk, the front desk girl was annoyed and asked maintenance to escort me to my room, he told me that some of the door knobs were broken so you have to pull them up instead of pushing them down. He got the door open. Relieved that I finally was checked in, I was happy to be in my room. 
+The girl at the front desk...I stayed over a weekend, my original plan was to say two nights, but my stay was so horrible I ended up only staying one night! I was not informed that the hotel was under construction when I booked my stay. When I checked in, they struggled to find my reservation, then gave me a room, when assigning my room they said my room number out loud, and loud enough that the other guests in the lobby knew which room I was staying. This made me uncomfortable as a solo traveler. When I got to the assigned room, it was filled with construction workers since it was being remodeled. I then went to the front desk to ask for a different room, again when I was assigned a new room the girl at the front desk loudly said my room number, this time other guests heard and even commented that they were staying next door! When I went to my second room the door would not open, I again had to go to the front desk, the front desk girl was annoyed and asked maintenance to escort me to my room, he told me that some of the door knobs were broken so you have to pull them up instead of pushing them down. He got the door open. Relieved that I finally was checked in, I was happy to be in my room. The girl at the front desk did not properly check me in to this room, so on three separate occasions someone opened my door without knocking, just opening it with their key. The front desk called to ask my name and told me that I was not checked into this room. I did ask if I could have a room away from the construction, and that request was met with a smirk and laugh, no answer. I was horribly disappointed in this hotel, I was so disappointed that I checked out a day early because I did not want to stay any longer.  I would not recommend this hotel o anyone, the staff are less than helpful and offer very poor customer service! I did call corporate and was not offered any compensation or even an apology! No apology from the hotel, manager or corporate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I stayed over a weekend, my original plan was to say two nights, but my stay was so horrible I ended up only staying one night! 
+I was not informed that the hotel was under construction when I booked my stay. When I checked in, they struggled to find my reservation, then gave me a room, when assigning my room they said my room number out loud, and loud enough that the other guests in the lobby knew which room I was staying. This made me uncomfortable as a solo traveler. When I got to the assigned room, it was filled with construction workers since it was being remodeled. I then went to the front desk to ask for a different room, again when I was assigned a new room the girl at the front desk loudly said my room number, this time other guests heard and even commented that they were staying next door! 
+When I went to my second room the door would not open, I again had to go to the front desk, the front desk girl was annoyed and asked maintenance to escort me to my room, he told me that some of the door knobs were broken so you have to pull them up instead of pushing them down. He got the door open. Relieved that I finally was checked in, I was happy to be in my room. 
+The girl at the front desk...I stayed over a weekend, my original plan was to say two nights, but my stay was so horrible I ended up only staying one night! I was not informed that the hotel was under construction when I booked my stay. When I checked in, they struggled to find my reservation, then gave me a room, when assigning my room they said my room number out loud, and loud enough that the other guests in the lobby knew which room I was staying. This made me uncomfortable as a solo traveler. When I got to the assigned room, it was filled with construction workers since it was being remodeled. I then went to the front desk to ask for a different room, again when I was assigned a new room the girl at the front desk loudly said my room number, this time other guests heard and even commented that they were staying next door! When I went to my second room the door would not open, I again had to go to the front desk, the front desk girl was annoyed and asked maintenance to escort me to my room, he told me that some of the door knobs were broken so you have to pull them up instead of pushing them down. He got the door open. Relieved that I finally was checked in, I was happy to be in my room. The girl at the front desk did not properly check me in to this room, so on three separate occasions someone opened my door without knocking, just opening it with their key. The front desk called to ask my name and told me that I was not checked into this room. I did ask if I could have a room away from the construction, and that request was met with a smirk and laugh, no answer. I was horribly disappointed in this hotel, I was so disappointed that I checked out a day early because I did not want to stay any longer.  I would not recommend this hotel o anyone, the staff are less than helpful and offer very poor customer service! I did call corporate and was not offered any compensation or even an apology! No apology from the hotel, manager or corporate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r464154246-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>464154246</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Good night sleep</t>
+  </si>
+  <si>
+    <t>Are used to stay here when it was a comfort inn and suites now that quality and took over they are going through a remodel new carpet new wood floors and it looks very nice inside the rooms beds are very comfortable the room is spacious has a separate little area with a pullout sleeper bed also has desk so you can do paperwork also has a refrigerator and a microwave in the room with a coffee potI stay here quite a bit when I travel at least once to twice a month and the staff is very helpful and friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Are used to stay here when it was a comfort inn and suites now that quality and took over they are going through a remodel new carpet new wood floors and it looks very nice inside the rooms beds are very comfortable the room is spacious has a separate little area with a pullout sleeper bed also has desk so you can do paperwork also has a refrigerator and a microwave in the room with a coffee potI stay here quite a bit when I travel at least once to twice a month and the staff is very helpful and friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r448875712-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>448875712</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Our Stay.</t>
+  </si>
+  <si>
+    <t>Staff was very polite and personable.  Only suggestion I would have would be to check the chlorine in the pool.  Kids enjoyed themselves but as a sat there with them the smell of the chlorine burned my eyes and nose.  Not sure if it was too strong or maybe needing some ventilation in the room, but the odor was very strong.  Other than that visit was great!!  Thank youTo explain why I on Rooms I marked very good and not excellent is because it kind of looked like it was either under new management and or remodeling.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r427938466-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>427938466</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Clean, good service, and helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed at comfort suites for 3 nights. Good clean rooms and service. The breakfast was decent and plenty. We were there for a busy weekend and nothing really to complain about. I will stay here again</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r420815256-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>420815256</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Worn and dirty...</t>
+  </si>
+  <si>
+    <t>Carpets everywhere are worn and dirty. Room smelled like cigarettes even though the hotel is non smoking and had a three inch hole in the rug right in the middle of the floor. Housekeeping is lick and a promise. Hot breakfast is microwave powdered eggs and microwave bacon...everything about the place is survival budget. Night desk is teenagers, clueless! Won't go back here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r420371068-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>420371068</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Shabby old rooms</t>
+  </si>
+  <si>
+    <t>I travel often and usually aren't impressed one way or another to write reviews, but my experience in this hotel deserves mentioning. We checked in later which is a mistake right there, but we were given a room that had a stained and old handicapped access shower, which the front desk person insisted that we requested - which we didn't. The carpet had just been cleaned and was wet enough to soak my socks, and the TV didn't work at all. The room smelled like someone just sprayed a whole can of Lysol on it and the room was lit with the dingiest of low wattage bulbs. We got the last room in the hotel ( a convention in town had it booked up) and they had no other rooms.The hallway of this no smoking hotel wreaked of pot. We booked n Expedia so we couldn't change hotels. Want more bad news? Stay here and you'll have your own list, I'm sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel often and usually aren't impressed one way or another to write reviews, but my experience in this hotel deserves mentioning. We checked in later which is a mistake right there, but we were given a room that had a stained and old handicapped access shower, which the front desk person insisted that we requested - which we didn't. The carpet had just been cleaned and was wet enough to soak my socks, and the TV didn't work at all. The room smelled like someone just sprayed a whole can of Lysol on it and the room was lit with the dingiest of low wattage bulbs. We got the last room in the hotel ( a convention in town had it booked up) and they had no other rooms.The hallway of this no smoking hotel wreaked of pot. We booked n Expedia so we couldn't change hotels. Want more bad news? Stay here and you'll have your own list, I'm sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r404630725-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>404630725</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Didn't Happen</t>
+  </si>
+  <si>
+    <t>We booked online, showed up road weary and ready to relax, and my husband checked us in.
+After carting our heavy bags through fairly dingy surroundings to our room we open the door with our card key (cigarette smoke so heavy in the room it almost knocked me over!) Imagine our surprise to hear some guy's voice say, "Hello?"
+Horrified and apologetic that we had just intruded on some man obviously in bed and confused by the fact that our card key had gotten us in the room, we quickly retreated out and looked at each other like,"what the hell just happened?"
+The mistake seemed to be a serious lack of computer/handwritten file card reconciliation.
+We returned to the front desk, the irate man in the room right behind us, and stood waiting for 10 min for the customer to finish raking the young front desk guy over the coals. 
+After an obvious show of public humiliation (bordering on violently hostile toward the front desk clerk) the angry customer went back to his room and the clerk spent another 10 minutes searching for an alternate room for us-to no avail.
+He finally called the Ramada across the highway and booked us a room there (and 'paid' for it with the hotels credit card which we learned upon arrival had been declined!)
+After the front desk settled on billing the Comfort Suites they accommodated us with a good room, comfy bed...We booked online, showed up road weary and ready to relax, and my husband checked us in.After carting our heavy bags through fairly dingy surroundings to our room we open the door with our card key (cigarette smoke so heavy in the room it almost knocked me over!) Imagine our surprise to hear some guy's voice say, "Hello?"Horrified and apologetic that we had just intruded on some man obviously in bed and confused by the fact that our card key had gotten us in the room, we quickly retreated out and looked at each other like,"what the hell just happened?"The mistake seemed to be a serious lack of computer/handwritten file card reconciliation.We returned to the front desk, the irate man in the room right behind us, and stood waiting for 10 min for the customer to finish raking the young front desk guy over the coals. After an obvious show of public humiliation (bordering on violently hostile toward the front desk clerk) the angry customer went back to his room and the clerk spent another 10 minutes searching for an alternate room for us-to no avail.He finally called the Ramada across the highway and booked us a room there (and 'paid' for it with the hotels credit card which we learned upon arrival had been declined!)After the front desk settled on billing the Comfort Suites they accommodated us with a good room, comfy bed and full breakfast (including fresh made omelettes) the next morning.Ramada-goodComfort Suites Westminster-a gambleWe won't recommend this place--although we felt kinda sorry for the guy at the front desk...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We booked online, showed up road weary and ready to relax, and my husband checked us in.
+After carting our heavy bags through fairly dingy surroundings to our room we open the door with our card key (cigarette smoke so heavy in the room it almost knocked me over!) Imagine our surprise to hear some guy's voice say, "Hello?"
+Horrified and apologetic that we had just intruded on some man obviously in bed and confused by the fact that our card key had gotten us in the room, we quickly retreated out and looked at each other like,"what the hell just happened?"
+The mistake seemed to be a serious lack of computer/handwritten file card reconciliation.
+We returned to the front desk, the irate man in the room right behind us, and stood waiting for 10 min for the customer to finish raking the young front desk guy over the coals. 
+After an obvious show of public humiliation (bordering on violently hostile toward the front desk clerk) the angry customer went back to his room and the clerk spent another 10 minutes searching for an alternate room for us-to no avail.
+He finally called the Ramada across the highway and booked us a room there (and 'paid' for it with the hotels credit card which we learned upon arrival had been declined!)
+After the front desk settled on billing the Comfort Suites they accommodated us with a good room, comfy bed...We booked online, showed up road weary and ready to relax, and my husband checked us in.After carting our heavy bags through fairly dingy surroundings to our room we open the door with our card key (cigarette smoke so heavy in the room it almost knocked me over!) Imagine our surprise to hear some guy's voice say, "Hello?"Horrified and apologetic that we had just intruded on some man obviously in bed and confused by the fact that our card key had gotten us in the room, we quickly retreated out and looked at each other like,"what the hell just happened?"The mistake seemed to be a serious lack of computer/handwritten file card reconciliation.We returned to the front desk, the irate man in the room right behind us, and stood waiting for 10 min for the customer to finish raking the young front desk guy over the coals. After an obvious show of public humiliation (bordering on violently hostile toward the front desk clerk) the angry customer went back to his room and the clerk spent another 10 minutes searching for an alternate room for us-to no avail.He finally called the Ramada across the highway and booked us a room there (and 'paid' for it with the hotels credit card which we learned upon arrival had been declined!)After the front desk settled on billing the Comfort Suites they accommodated us with a good room, comfy bed and full breakfast (including fresh made omelettes) the next morning.Ramada-goodComfort Suites Westminster-a gambleWe won't recommend this place--although we felt kinda sorry for the guy at the front desk...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r402877852-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>402877852</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Great Service. Great Food. Great People. Great price.</t>
+  </si>
+  <si>
+    <t>Originally, we stayed at “Denver’s Best Inn and Suites” on Quebec St. We got to know “Comfort Suite Westminster” through a friend’s recommendation. Oh wow, everything was so much better. We had a double, queen size bedroom for almost half the price. 
+Breakfast was included and surprisingly well prepared. Normally, you would not expect much from food at other hotels; Comfort Suite had 2 choices of waffles, 3 of coffee, in addition to bacon, eggs, cupcakes, and bagels. Thinking back, Best Inn and Suite only had 1 type of waffle and bagels, which barely constituted what we call a meal. The difference was like night and day.
+At every corner you go, you encountered friendly staff who evidently enjoyed what they were doing; they truly wanted to help you. When I stayed there, I lost the toothbrush I brought from home. It was 11h53 PM, so I headed to the front desk, intending to buy one of those on the shelf at twice the regular cost. Instead of charging me the cost of a frappuccino for a toothbrush, the friendly receptionist went inside and gave me a complementary one. It was certainly not as good as my lost one, but hey, I got to enjoy the “frap” thanks to the money she saved me.  Such considerate thought was what gave me a deep impression of my stay here.
+Comfort Suite Westminster is truly a gem in the middle of Denver....Originally, we stayed at “Denver’s Best Inn and Suites” on Quebec St. We got to know “Comfort Suite Westminster” through a friend’s recommendation. Oh wow, everything was so much better. We had a double, queen size bedroom for almost half the price. Breakfast was included and surprisingly well prepared. Normally, you would not expect much from food at other hotels; Comfort Suite had 2 choices of waffles, 3 of coffee, in addition to bacon, eggs, cupcakes, and bagels. Thinking back, Best Inn and Suite only had 1 type of waffle and bagels, which barely constituted what we call a meal. The difference was like night and day.At every corner you go, you encountered friendly staff who evidently enjoyed what they were doing; they truly wanted to help you. When I stayed there, I lost the toothbrush I brought from home. It was 11h53 PM, so I headed to the front desk, intending to buy one of those on the shelf at twice the regular cost. Instead of charging me the cost of a frappuccino for a toothbrush, the friendly receptionist went inside and gave me a complementary one. It was certainly not as good as my lost one, but hey, I got to enjoy the “frap” thanks to the money she saved me.  Such considerate thought was what gave me a deep impression of my stay here.Comfort Suite Westminster is truly a gem in the middle of Denver. From now on, whenever I go to Denver for vacation or business, I will always come back there. Make sure you reserve your room in advance; I saw the panel with the word “full” pop up pretty frequently when I was there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Originally, we stayed at “Denver’s Best Inn and Suites” on Quebec St. We got to know “Comfort Suite Westminster” through a friend’s recommendation. Oh wow, everything was so much better. We had a double, queen size bedroom for almost half the price. 
+Breakfast was included and surprisingly well prepared. Normally, you would not expect much from food at other hotels; Comfort Suite had 2 choices of waffles, 3 of coffee, in addition to bacon, eggs, cupcakes, and bagels. Thinking back, Best Inn and Suite only had 1 type of waffle and bagels, which barely constituted what we call a meal. The difference was like night and day.
+At every corner you go, you encountered friendly staff who evidently enjoyed what they were doing; they truly wanted to help you. When I stayed there, I lost the toothbrush I brought from home. It was 11h53 PM, so I headed to the front desk, intending to buy one of those on the shelf at twice the regular cost. Instead of charging me the cost of a frappuccino for a toothbrush, the friendly receptionist went inside and gave me a complementary one. It was certainly not as good as my lost one, but hey, I got to enjoy the “frap” thanks to the money she saved me.  Such considerate thought was what gave me a deep impression of my stay here.
+Comfort Suite Westminster is truly a gem in the middle of Denver....Originally, we stayed at “Denver’s Best Inn and Suites” on Quebec St. We got to know “Comfort Suite Westminster” through a friend’s recommendation. Oh wow, everything was so much better. We had a double, queen size bedroom for almost half the price. Breakfast was included and surprisingly well prepared. Normally, you would not expect much from food at other hotels; Comfort Suite had 2 choices of waffles, 3 of coffee, in addition to bacon, eggs, cupcakes, and bagels. Thinking back, Best Inn and Suite only had 1 type of waffle and bagels, which barely constituted what we call a meal. The difference was like night and day.At every corner you go, you encountered friendly staff who evidently enjoyed what they were doing; they truly wanted to help you. When I stayed there, I lost the toothbrush I brought from home. It was 11h53 PM, so I headed to the front desk, intending to buy one of those on the shelf at twice the regular cost. Instead of charging me the cost of a frappuccino for a toothbrush, the friendly receptionist went inside and gave me a complementary one. It was certainly not as good as my lost one, but hey, I got to enjoy the “frap” thanks to the money she saved me.  Such considerate thought was what gave me a deep impression of my stay here.Comfort Suite Westminster is truly a gem in the middle of Denver. From now on, whenever I go to Denver for vacation or business, I will always come back there. Make sure you reserve your room in advance; I saw the panel with the word “full” pop up pretty frequently when I was there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r397046528-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>397046528</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>Spent a week here earlier this month for a soccer tournament/festival and had a great stay. The staff was awesome and very accommodating! Everyone knows it can be tough dealing with large groups and we easily had nearly 200 soccer players in this hotel alone but the staff was totally cool about it all and handled our every need with ease. The front desk staff and the manager were awesome I would definitely recommend this hotel and I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Jennifer T, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Spent a week here earlier this month for a soccer tournament/festival and had a great stay. The staff was awesome and very accommodating! Everyone knows it can be tough dealing with large groups and we easily had nearly 200 soccer players in this hotel alone but the staff was totally cool about it all and handled our every need with ease. The front desk staff and the manager were awesome I would definitely recommend this hotel and I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r387577937-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>387577937</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice location but a bit expensive </t>
+  </si>
+  <si>
+    <t>We had had a very hard time finding a place to stay in this area for the length of stay needed. Most places were booked solid and  talking all across Denver! We were able to book our 1st 2 nights here. I liked the couch/sitting area, choice of pillows, and the hot tub was great!  I appreciate a hot breakfast choice but not when scrambled eggs and sausage are microwaved.I wish we could have stayed longer. We had to check out and find a different room for our last night. Rooms were clean and front desk staff were very nice and accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>We had had a very hard time finding a place to stay in this area for the length of stay needed. Most places were booked solid and  talking all across Denver! We were able to book our 1st 2 nights here. I liked the couch/sitting area, choice of pillows, and the hot tub was great!  I appreciate a hot breakfast choice but not when scrambled eggs and sausage are microwaved.I wish we could have stayed longer. We had to check out and find a different room for our last night. Rooms were clean and front desk staff were very nice and accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r387264618-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>387264618</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Golly gee, Denver hotels are expensive</t>
+  </si>
+  <si>
+    <t>We had to drive 10 miles north on I-25 to find something decent under $200 and wound up a this Comfort Suites,  It's fine; certainly nothing special for the price.  They did offer two pillow choices - one soft, one firm - and that was a nice touch.  Also breakfast included scrambled eggs and sausage links in addition to the normal carbs.  Front desk staff were pleasant and a request for a ground floor room was honored.  Room was clean and comfortable.  Wi-Fi worked well.  Mini fridge had only a micro-freezer.  Hard to get ice packs frozen.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r383920253-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>383920253</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Visiting Denver</t>
+  </si>
+  <si>
+    <t>Poorly managed hotel: beds make sloppy, dirty common areas.  Had to switch rooms because bed had no comforter.  There were people sleeping in the business center, who weren't guests!  The front desk was shocked - obviously, the night auditor wasn't walking the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Poorly managed hotel: beds make sloppy, dirty common areas.  Had to switch rooms because bed had no comforter.  There were people sleeping in the business center, who weren't guests!  The front desk was shocked - obviously, the night auditor wasn't walking the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r371303038-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>371303038</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok hotel but it needs a deep cleaning.  </t>
+  </si>
+  <si>
+    <t>We stayed here because we got a group rate.  Loved that it's right next to I25.  The kids enjoyed the pool and hot tub and it was quite at night.   The carpets really need a deep cleaning or maybe it's time to upgrade.  You can see they've made quite a few repairs over the years, especially in our rooms bathroom and it looked a very shabby.  I'll would stay here again if I got another reduced rate for some reason but would more than likely try another hotel in the area.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r361853420-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>361853420</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Older hotel that tries</t>
+  </si>
+  <si>
+    <t>The hotel was booked by our volleyball club director; I would not have chose this location.  Older hotel that tries to make everything good.  The rooms are average.  Semi-comfortable bed.  Good size rooms.  Bath tubs are molded plastic and squeaky; almost felt as if you could fall through.  There was a hole above the toilet that I stuffed with tissue.  After some site-seeing we could not get into our room; the front desk got the card key working; apparently being close to a cell phone deactivates the key, have not had this issue at any other hotel in the past.  A quick fix but irritating after being gone all day.  Breakfast is mediocre at best.  The elevator didn't always work.  There is a pool and hot tub; the water looked disgusting!   Would not choose the location should we ever travel back to this area.  Many restaurants and shopping near by.  Close to I-25.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Romy G, General Manager at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was booked by our volleyball club director; I would not have chose this location.  Older hotel that tries to make everything good.  The rooms are average.  Semi-comfortable bed.  Good size rooms.  Bath tubs are molded plastic and squeaky; almost felt as if you could fall through.  There was a hole above the toilet that I stuffed with tissue.  After some site-seeing we could not get into our room; the front desk got the card key working; apparently being close to a cell phone deactivates the key, have not had this issue at any other hotel in the past.  A quick fix but irritating after being gone all day.  Breakfast is mediocre at best.  The elevator didn't always work.  There is a pool and hot tub; the water looked disgusting!   Would not choose the location should we ever travel back to this area.  Many restaurants and shopping near by.  Close to I-25.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r357459054-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>357459054</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Super 3 day and 2 day price</t>
+  </si>
+  <si>
+    <t>I chose here because I couldn't get a fridge and microwave at the other motels, close by.Super 3 day deal for 75$ a night.  Super Front Desk staff, nice little pantry, and all the other amenities, pool, big hot tub, and the best freshly made sugar cookies ever..Fitness center and business center.   I haven't done the breakfast but, it in a large area, with many choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>I chose here because I couldn't get a fridge and microwave at the other motels, close by.Super 3 day deal for 75$ a night.  Super Front Desk staff, nice little pantry, and all the other amenities, pool, big hot tub, and the best freshly made sugar cookies ever..Fitness center and business center.   I haven't done the breakfast but, it in a large area, with many choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r335723831-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>335723831</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Pros: Comfortable bed, no problems with using the dining room in the afternoon to visit with family who were also guestsCons: Couldn't find reservation and additional mix-ups about reservation after checking out, broken elevator first night, filthy restroom in lobby, charged for other family members' room (later credited), hallway carpeting needs to be replaced, vacuum left sitting outside of room for more than 24 hours, found bobby pins laying on the floor in our room so it must not have been vacuumed after the previous guestsSo-so: average breakfastOverall: I expect far better service and a more inviting atmosphere at Choice Hotels.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r335588614-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>335588614</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Average ---</t>
+  </si>
+  <si>
+    <t>Good location .... nice rooms and beds .... friendly staff ....Room service erratic ....clogged shower .... HORRIBLE KEYS TOO Sensitive ..... went through 11 and cig butts everywhereGOod for a family as has adequate indoor pool</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r329742048-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>329742048</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Decent but not great basic accomidations</t>
+  </si>
+  <si>
+    <t>We spent Thanksgiving night here 2015 after visiting family in the area and found the hotel comfortable and basic.  The bath room was clean as was the bedding but the vacuum cleaner had missed pieces of bacon on the carpet.  The lobby was clean and the breakfast only fair with cold salty eggs and almost no fruit. Rate was $100 and might have been a bit high for this type of hotel.  We stay at Hampton's in the area and rate them as good or better but this Comfort Suites is only adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>We spent Thanksgiving night here 2015 after visiting family in the area and found the hotel comfortable and basic.  The bath room was clean as was the bedding but the vacuum cleaner had missed pieces of bacon on the carpet.  The lobby was clean and the breakfast only fair with cold salty eggs and almost no fruit. Rate was $100 and might have been a bit high for this type of hotel.  We stay at Hampton's in the area and rate them as good or better but this Comfort Suites is only adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r320543674-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>320543674</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Comfortable as expected</t>
+  </si>
+  <si>
+    <t>We stayed one night in October 2015.  We are a family of 4.  We didn't have a reservation but I checked a few sites and found the best rate and walked in asking for a room and they had the lowest available rate that I had found online without me having to ask for it.  Check in was quick.  Otis Spunkmeyer cookies were offered to us.  We were in room 316 which was right off the elevator but we couldn't hear any noise from it.  The room was big.  Two queen beds, a sofa, desk, coffee table, mini fridge, closet, bathroom.  The room matched the photos we found online.  The beds were comfortable.  Cable was clear.  Water in the shower was hot and constant.  Room temperature was comfortable.  We took advantage of the free hot breakfast included with the room.  We were there just after it opened at 6:30 and it wasn't crowded.  We had waffles and eggs and sausage with coffee and juice.  All in all we got our money's worth and would stay here again if we needed a hotel in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>We stayed one night in October 2015.  We are a family of 4.  We didn't have a reservation but I checked a few sites and found the best rate and walked in asking for a room and they had the lowest available rate that I had found online without me having to ask for it.  Check in was quick.  Otis Spunkmeyer cookies were offered to us.  We were in room 316 which was right off the elevator but we couldn't hear any noise from it.  The room was big.  Two queen beds, a sofa, desk, coffee table, mini fridge, closet, bathroom.  The room matched the photos we found online.  The beds were comfortable.  Cable was clear.  Water in the shower was hot and constant.  Room temperature was comfortable.  We took advantage of the free hot breakfast included with the room.  We were there just after it opened at 6:30 and it wasn't crowded.  We had waffles and eggs and sausage with coffee and juice.  All in all we got our money's worth and would stay here again if we needed a hotel in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r319699992-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>319699992</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Has some good and bad....</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I stayed here for 6 nights while we organized and attended a family funeral.  One of the best features of the hotel was the size of the rooms - we had a room with two queen beds (which were very comfortable, and they offered firm or soft pillows), but the added living room area with a couch, coffee table and work desk really made the room feel a lot larger and a lot less cramped for such a long stay (with a 3 year old!).  The fridge and microwave space was an added bonus.
+My main complaint was the wifi - it's really awful.  They don't appear to have it password protected at all, so I wonder if people in the area are using it as well, because it is ridiculously slow and at times quits all together.  Thankfully neither my husband or I were relying on it for work - if that had been the case it would have been a deal  breaker.
+The pool area is just okay (which was disappointing because my daughter is crazy about swimming, so we were hoping to use it a LOT!) - we only visited it twice since it seemed kind of dirty and uncared for.  It really needs a good cleaning and sprucing up.  The water in the hot tub was murky....not exactly inviting.  The flooring around the pool and hot tub area appears to be just...My husband, daughter and I stayed here for 6 nights while we organized and attended a family funeral.  One of the best features of the hotel was the size of the rooms - we had a room with two queen beds (which were very comfortable, and they offered firm or soft pillows), but the added living room area with a couch, coffee table and work desk really made the room feel a lot larger and a lot less cramped for such a long stay (with a 3 year old!).  The fridge and microwave space was an added bonus.My main complaint was the wifi - it's really awful.  They don't appear to have it password protected at all, so I wonder if people in the area are using it as well, because it is ridiculously slow and at times quits all together.  Thankfully neither my husband or I were relying on it for work - if that had been the case it would have been a deal  breaker.The pool area is just okay (which was disappointing because my daughter is crazy about swimming, so we were hoping to use it a LOT!) - we only visited it twice since it seemed kind of dirty and uncared for.  It really needs a good cleaning and sprucing up.  The water in the hot tub was murky....not exactly inviting.  The flooring around the pool and hot tub area appears to be just a normal flooring tile, so when it's wet it becomes very slippery.  There are some mats covering some of the areas, but it's just kind of awkward and hazardous.  Another issue was how sensitive their room keys are - we had to get our keys reprogrammed like 4 times...not a huge deal, but fairly annoying and an inconvenience.  This would be a great hotel if you're passing through for the night....but I think we will choose something else when we spend any length of time in Colorado again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Manager at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I stayed here for 6 nights while we organized and attended a family funeral.  One of the best features of the hotel was the size of the rooms - we had a room with two queen beds (which were very comfortable, and they offered firm or soft pillows), but the added living room area with a couch, coffee table and work desk really made the room feel a lot larger and a lot less cramped for such a long stay (with a 3 year old!).  The fridge and microwave space was an added bonus.
+My main complaint was the wifi - it's really awful.  They don't appear to have it password protected at all, so I wonder if people in the area are using it as well, because it is ridiculously slow and at times quits all together.  Thankfully neither my husband or I were relying on it for work - if that had been the case it would have been a deal  breaker.
+The pool area is just okay (which was disappointing because my daughter is crazy about swimming, so we were hoping to use it a LOT!) - we only visited it twice since it seemed kind of dirty and uncared for.  It really needs a good cleaning and sprucing up.  The water in the hot tub was murky....not exactly inviting.  The flooring around the pool and hot tub area appears to be just...My husband, daughter and I stayed here for 6 nights while we organized and attended a family funeral.  One of the best features of the hotel was the size of the rooms - we had a room with two queen beds (which were very comfortable, and they offered firm or soft pillows), but the added living room area with a couch, coffee table and work desk really made the room feel a lot larger and a lot less cramped for such a long stay (with a 3 year old!).  The fridge and microwave space was an added bonus.My main complaint was the wifi - it's really awful.  They don't appear to have it password protected at all, so I wonder if people in the area are using it as well, because it is ridiculously slow and at times quits all together.  Thankfully neither my husband or I were relying on it for work - if that had been the case it would have been a deal  breaker.The pool area is just okay (which was disappointing because my daughter is crazy about swimming, so we were hoping to use it a LOT!) - we only visited it twice since it seemed kind of dirty and uncared for.  It really needs a good cleaning and sprucing up.  The water in the hot tub was murky....not exactly inviting.  The flooring around the pool and hot tub area appears to be just a normal flooring tile, so when it's wet it becomes very slippery.  There are some mats covering some of the areas, but it's just kind of awkward and hazardous.  Another issue was how sensitive their room keys are - we had to get our keys reprogrammed like 4 times...not a huge deal, but fairly annoying and an inconvenience.  This would be a great hotel if you're passing through for the night....but I think we will choose something else when we spend any length of time in Colorado again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r319444223-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>319444223</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Very pleased with our stay</t>
+  </si>
+  <si>
+    <t>Enjoyed having a suite this provided extra spread out room. We had two queen beds and in the extra addition there was a sofa, living room chair,  plus a desk and office chair. They had several electrical outlets and even USB outlets which made it nice for us three that had phones and tablets I appreciated that. The beds were overall comfortable.  We stayed three nights and had comfortable rest. Breakfast was very good and plenty. The staff was very good to work with and very helpful as well.The only complaint I would have would be the location of our room we were right above the main entrance that has two sets of automatic doors. It sounds like distant thunder and is busy in the evening but calms down as it gets later. Other than that we enjoyed our stay and would come back except not above the lobby : )One other perk is the hotel is nestled among several good restaurants which made it convenient. And not too far from Denver, Boulder, Estes Park, and Rocky Mountain National Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Enjoyed having a suite this provided extra spread out room. We had two queen beds and in the extra addition there was a sofa, living room chair,  plus a desk and office chair. They had several electrical outlets and even USB outlets which made it nice for us three that had phones and tablets I appreciated that. The beds were overall comfortable.  We stayed three nights and had comfortable rest. Breakfast was very good and plenty. The staff was very good to work with and very helpful as well.The only complaint I would have would be the location of our room we were right above the main entrance that has two sets of automatic doors. It sounds like distant thunder and is busy in the evening but calms down as it gets later. Other than that we enjoyed our stay and would come back except not above the lobby : )One other perk is the hotel is nestled among several good restaurants which made it convenient. And not too far from Denver, Boulder, Estes Park, and Rocky Mountain National Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r309074181-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>309074181</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Stayed here several times in a king room suite and the rooms are very clean and very nice inside beds are very comfortable also come with two types of pillow soft and firm they also have a free breakfast in the morning and they have an indoor pool and spa that is very relaxing I stay here every time I am in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, General Manager at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here several times in a king room suite and the rooms are very clean and very nice inside beds are very comfortable also come with two types of pillow soft and firm they also have a free breakfast in the morning and they have an indoor pool and spa that is very relaxing I stay here every time I am in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r303725991-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>303725991</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Bad feeling for our first night in Colorado</t>
+  </si>
+  <si>
+    <t>We are a group of three people traveling from Denver to Yellowstone. Our first night, booked in France, was not a good experience. The smell in the room was definitly from cold cigarette ashes and this was even more evident in the bathroom. We had a non-smoking room of course. Receptionist at the desk was not so friendly. Because they were no double queen beds available (contrary to what we had reserved), he tried to convince us that we had used the wrong web site to make the reservation. The indoor pool contained pure chlorine. Furniture was old and worn. Hotel needs urgent renovation. Breakfast was OK. Our general advice is to stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We are a group of three people traveling from Denver to Yellowstone. Our first night, booked in France, was not a good experience. The smell in the room was definitly from cold cigarette ashes and this was even more evident in the bathroom. We had a non-smoking room of course. Receptionist at the desk was not so friendly. Because they were no double queen beds available (contrary to what we had reserved), he tried to convince us that we had used the wrong web site to make the reservation. The indoor pool contained pure chlorine. Furniture was old and worn. Hotel needs urgent renovation. Breakfast was OK. Our general advice is to stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r301324737-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>301324737</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>From the minute we pulled in we could tell this was not a good place.  We stayed in 8 hotels in 10 days on a recent trip and this was by far the worst.  Receptionist was very hard to understand to start things off.  Lobby and halls were hot and elevator like a steam room.  The room had a funny smell as if they were trying to cover over something.  Went to use the laundry and needed quarters.  Sign above the appliances said to see front desk for quarters.  They had none of course and made no attempt to get any.  Advised we should go to a gas station nearby.  We booked online and paid in advance so we couldn't just take off and find other places, or we would have.  We almost did anyway, it was that uncomfortable.  Stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>From the minute we pulled in we could tell this was not a good place.  We stayed in 8 hotels in 10 days on a recent trip and this was by far the worst.  Receptionist was very hard to understand to start things off.  Lobby and halls were hot and elevator like a steam room.  The room had a funny smell as if they were trying to cover over something.  Went to use the laundry and needed quarters.  Sign above the appliances said to see front desk for quarters.  They had none of course and made no attempt to get any.  Advised we should go to a gas station nearby.  We booked online and paid in advance so we couldn't just take off and find other places, or we would have.  We almost did anyway, it was that uncomfortable.  Stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r298726512-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>298726512</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>weak enforcement of no smoking policy</t>
+  </si>
+  <si>
+    <t>This hotel desperately needs remodeling and it needs to enforce its no smoking policy. Our room reeked of smoke, the carpet was filled with spots from dropped beverages, the breakfast is basic and nothing more, the dining area is very small. I don't know why the maid staff does not report smoking. The only reason we stayed rather than moving to another hotel was one employee, Michelle. She listened to our concerns about the poor quality of the room and immediately arranged for us to move to another, cleaner room within the hotel. She admitted the hotel has problems with smoking in rooms despite the imposed $500 fine. Frankly, not sure we will stay there again despite Michelle's kindness.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel desperately needs remodeling and it needs to enforce its no smoking policy. Our room reeked of smoke, the carpet was filled with spots from dropped beverages, the breakfast is basic and nothing more, the dining area is very small. I don't know why the maid staff does not report smoking. The only reason we stayed rather than moving to another hotel was one employee, Michelle. She listened to our concerns about the poor quality of the room and immediately arranged for us to move to another, cleaner room within the hotel. She admitted the hotel has problems with smoking in rooms despite the imposed $500 fine. Frankly, not sure we will stay there again despite Michelle's kindness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r297366163-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>297366163</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>This hotel was great for the price. We stayed in a king room, which had a sofa with a pull-out bed. This room can comfortably fit 3 people. The room was clean and had complimentary coffee with a coffee machine and a fridge. There was a pool and hot tub. They also offered complimentary continental breakfast! Overall this hotel was excellent and I would highly recommend this to everyone! No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was great for the price. We stayed in a king room, which had a sofa with a pull-out bed. This room can comfortably fit 3 people. The room was clean and had complimentary coffee with a coffee machine and a fridge. There was a pool and hot tub. They also offered complimentary continental breakfast! Overall this hotel was excellent and I would highly recommend this to everyone! No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r290228932-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>290228932</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Cross country trip</t>
+  </si>
+  <si>
+    <t>Once we cleared the traffic nightmare of the Denver area we checked in.  Front desk clerk was very friendly and helpful, check in went quick, not long after we were in our room the desk  called to check and make sure the room  was to our satisfaction, when  the next shift came in they also called to check on us.  The breakfast in the morning was great,  hot eggs and  sausages were an added bonus.  Room was clean and offered plenty of room..If we were to stay in Denver ever agin we would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Romy G, Front Office Manager at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Once we cleared the traffic nightmare of the Denver area we checked in.  Front desk clerk was very friendly and helpful, check in went quick, not long after we were in our room the desk  called to check and make sure the room  was to our satisfaction, when  the next shift came in they also called to check on us.  The breakfast in the morning was great,  hot eggs and  sausages were an added bonus.  Room was clean and offered plenty of room..If we were to stay in Denver ever agin we would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r281342896-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>281342896</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to spend a couple of nights. </t>
+  </si>
+  <si>
+    <t>I saw some negative reviews on here but I'm not sure why. The room I had was very spacious and clean. The microwave was broken but they replaced it within an hour of me notifying them. The breakfast was great, the people working the breakfast counter were super friendly and helpful. The night clerks were excellent and helpful. Overall it was an excellent experience for our family. I would recommend staying here if you are in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>I saw some negative reviews on here but I'm not sure why. The room I had was very spacious and clean. The microwave was broken but they replaced it within an hour of me notifying them. The breakfast was great, the people working the breakfast counter were super friendly and helpful. The night clerks were excellent and helpful. Overall it was an excellent experience for our family. I would recommend staying here if you are in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r279736483-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>279736483</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Average, thin walls in the room, elevator broke</t>
+  </si>
+  <si>
+    <t>I've stayed in many Comfort Suites since December and I was disappointed in the quality of this one.  I'm having knee surgery in 3 days and had to climb the stairs to my 2nd floor room for two nights because the elevator broke 15 minutes prior to my arrival.   The desk staff did carry all my stuff up the stairs and into the room.  They had it working by the 2nd morning. 
+The plastic tubs make plenty of noise when walking on them.  You can easily hear people taking showers.  The walls are thin enough to hear conversation.
+The air conditioning worked perfect and I really appreciate that.
+I have an illness that causes heavy fatigue and so I sleep till noon sometimes.   The first morning I was awakened by housekeeping moving a cleaning cart down the stairs.  The 2nd morning the people above awoke me.
+I travel with a fully declawed Persian cat that is mostly shaved, like a lion.  I believe I was put in the "pet" suite because the carpet is terrible.   I wonder if I had gotten a better room if I had snuck him him.
+They have a lamp on one side of the bed that has 2 AC outlets which is great for plugging in my CPAP machine and cellphone charger.   They need to have that on both sides of the bed.
+The bathroom only had only one large bath towel and was missing...I've stayed in many Comfort Suites since December and I was disappointed in the quality of this one.  I'm having knee surgery in 3 days and had to climb the stairs to my 2nd floor room for two nights because the elevator broke 15 minutes prior to my arrival.   The desk staff did carry all my stuff up the stairs and into the room.  They had it working by the 2nd morning. The plastic tubs make plenty of noise when walking on them.  You can easily hear people taking showers.  The walls are thin enough to hear conversation.The air conditioning worked perfect and I really appreciate that.I have an illness that causes heavy fatigue and so I sleep till noon sometimes.   The first morning I was awakened by housekeeping moving a cleaning cart down the stairs.  The 2nd morning the people above awoke me.I travel with a fully declawed Persian cat that is mostly shaved, like a lion.  I believe I was put in the "pet" suite because the carpet is terrible.   I wonder if I had gotten a better room if I had snuck him him.They have a lamp on one side of the bed that has 2 AC outlets which is great for plugging in my CPAP machine and cellphone charger.   They need to have that on both sides of the bed.The bathroom only had only one large bath towel and was missing the bath mat.  I use a plastic mirror with suction cup for shaving in the shower and it wouldn't stay attached to the plastic shower walls.  The sink drained slow and backed up while shaving.The rest of the suite was fine.  Large desk, comfortable chair, couch.  I had to pull the refrigerator out and turn down the temp because it froze 2 drinks and the cat food.I met the manager in the elevator after breakfast the 2nd morning and she offered to move me.  I also told her I was disappointed that they didn't have bisquits and gravy at breakfast.   I've had that at ALL the Comfort Suites in five states.  They did offer hot scrambled eggs and sausage and a lot of hotels don't even offer that.Overall, the hotel has a Quality Inn or Days Inn feel to it.  They should close and renovate to bring it up to Comfort Suites standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I've stayed in many Comfort Suites since December and I was disappointed in the quality of this one.  I'm having knee surgery in 3 days and had to climb the stairs to my 2nd floor room for two nights because the elevator broke 15 minutes prior to my arrival.   The desk staff did carry all my stuff up the stairs and into the room.  They had it working by the 2nd morning. 
+The plastic tubs make plenty of noise when walking on them.  You can easily hear people taking showers.  The walls are thin enough to hear conversation.
+The air conditioning worked perfect and I really appreciate that.
+I have an illness that causes heavy fatigue and so I sleep till noon sometimes.   The first morning I was awakened by housekeeping moving a cleaning cart down the stairs.  The 2nd morning the people above awoke me.
+I travel with a fully declawed Persian cat that is mostly shaved, like a lion.  I believe I was put in the "pet" suite because the carpet is terrible.   I wonder if I had gotten a better room if I had snuck him him.
+They have a lamp on one side of the bed that has 2 AC outlets which is great for plugging in my CPAP machine and cellphone charger.   They need to have that on both sides of the bed.
+The bathroom only had only one large bath towel and was missing...I've stayed in many Comfort Suites since December and I was disappointed in the quality of this one.  I'm having knee surgery in 3 days and had to climb the stairs to my 2nd floor room for two nights because the elevator broke 15 minutes prior to my arrival.   The desk staff did carry all my stuff up the stairs and into the room.  They had it working by the 2nd morning. The plastic tubs make plenty of noise when walking on them.  You can easily hear people taking showers.  The walls are thin enough to hear conversation.The air conditioning worked perfect and I really appreciate that.I have an illness that causes heavy fatigue and so I sleep till noon sometimes.   The first morning I was awakened by housekeeping moving a cleaning cart down the stairs.  The 2nd morning the people above awoke me.I travel with a fully declawed Persian cat that is mostly shaved, like a lion.  I believe I was put in the "pet" suite because the carpet is terrible.   I wonder if I had gotten a better room if I had snuck him him.They have a lamp on one side of the bed that has 2 AC outlets which is great for plugging in my CPAP machine and cellphone charger.   They need to have that on both sides of the bed.The bathroom only had only one large bath towel and was missing the bath mat.  I use a plastic mirror with suction cup for shaving in the shower and it wouldn't stay attached to the plastic shower walls.  The sink drained slow and backed up while shaving.The rest of the suite was fine.  Large desk, comfortable chair, couch.  I had to pull the refrigerator out and turn down the temp because it froze 2 drinks and the cat food.I met the manager in the elevator after breakfast the 2nd morning and she offered to move me.  I also told her I was disappointed that they didn't have bisquits and gravy at breakfast.   I've had that at ALL the Comfort Suites in five states.  They did offer hot scrambled eggs and sausage and a lot of hotels don't even offer that.Overall, the hotel has a Quality Inn or Days Inn feel to it.  They should close and renovate to bring it up to Comfort Suites standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r279572988-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>279572988</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Average is as good as it gets here!</t>
+  </si>
+  <si>
+    <t>My wife and I recently stay at this hotel with three grandchildren. We also have family in the area so at times we were all together. Check-in was great and the front desk was more than helpful.      The hotel is in a great location but is extremely dated. The place needs a complete make-over to qualify as a Comfort Suites. More like an average Quality Inn.      The old beat up limo parked in the corner with a family appearing to live in it was the first drawback. Being cautious, we soon found that one of the family was an employee but felt they lived in the car on the property. Looked like free food and services for all the family as well.      The pool area is extremely small and very noisy when packed full of screaming kids. Parental supervision was nearly none.      For a suite, the room was small and also very dated. The sofa sleeper was wore out, AC didn't work well as we had the windows open most of the time. Plastic squeaky showers need to be replaced as well.      Although the location for this visit to Denver was ideal, I think we will look elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My wife and I recently stay at this hotel with three grandchildren. We also have family in the area so at times we were all together. Check-in was great and the front desk was more than helpful.      The hotel is in a great location but is extremely dated. The place needs a complete make-over to qualify as a Comfort Suites. More like an average Quality Inn.      The old beat up limo parked in the corner with a family appearing to live in it was the first drawback. Being cautious, we soon found that one of the family was an employee but felt they lived in the car on the property. Looked like free food and services for all the family as well.      The pool area is extremely small and very noisy when packed full of screaming kids. Parental supervision was nearly none.      For a suite, the room was small and also very dated. The sofa sleeper was wore out, AC didn't work well as we had the windows open most of the time. Plastic squeaky showers need to be replaced as well.      Although the location for this visit to Denver was ideal, I think we will look elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r271580807-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>271580807</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Great one night stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel one night and had a great stay. Romy, the general manager, greeted me at the front desk when I arrived. I was four hours early for check in and he was able to get me into my room right away. Along with my keys, have gave me a bottle of cold water which was a nice touch after my early morning and long flight. The rooms are nicely decorated and clean. I had trouble getting internet access in my room and the front desk staff helped fix the issue and offered problem solving tips right away. The morning breakfast was typical for a hotel but the lovely woman who worked in the dining area was great. She was friendly and made sure the guests had everything they needed. All in all, I had a great stay at the hotel and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel one night and had a great stay. Romy, the general manager, greeted me at the front desk when I arrived. I was four hours early for check in and he was able to get me into my room right away. Along with my keys, have gave me a bottle of cold water which was a nice touch after my early morning and long flight. The rooms are nicely decorated and clean. I had trouble getting internet access in my room and the front desk staff helped fix the issue and offered problem solving tips right away. The morning breakfast was typical for a hotel but the lovely woman who worked in the dining area was great. She was friendly and made sure the guests had everything they needed. All in all, I had a great stay at the hotel and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r270408078-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>270408078</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>If you’re just looking for a room, you found the place. I stayed here for well over 2 months because the company I worked got a discount there. The rooms are outdated, carpet is very old, toilet rocks back and forth when you set on it, spent my own money to get rid of ants in the room, missing molding around the room, and they used a door knob plate to cover the hole in the bathroom door. I won’t be staying there this trip in, or any other trip. The pictures they post of the rooms is not what you will see when you get there, I PROMISE. The 2 best employees they have is Sondra, and Nick.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>If you’re just looking for a room, you found the place. I stayed here for well over 2 months because the company I worked got a discount there. The rooms are outdated, carpet is very old, toilet rocks back and forth when you set on it, spent my own money to get rid of ants in the room, missing molding around the room, and they used a door knob plate to cover the hole in the bathroom door. I won’t be staying there this trip in, or any other trip. The pictures they post of the rooms is not what you will see when you get there, I PROMISE. The 2 best employees they have is Sondra, and Nick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r267690704-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>267690704</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Night Enroute</t>
+  </si>
+  <si>
+    <t>This hotel is just off of I-25 on the North end of the Denver area.  It appears to have been remodeled a few years ago however it still feels a bit dated.  The staff is friendly and seems to understand the needs of their "traveler" customers.  This hotel is not going to place you near major Denver attractions, but is best suited for a one night stay through Denver.  It has a small laundry onsite, and the breakfast is what you might expect of a lite continental breakfast.  There are several dining options within a mile of the hotel.  All in all, not a bad place to spend a night while on the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is just off of I-25 on the North end of the Denver area.  It appears to have been remodeled a few years ago however it still feels a bit dated.  The staff is friendly and seems to understand the needs of their "traveler" customers.  This hotel is not going to place you near major Denver attractions, but is best suited for a one night stay through Denver.  It has a small laundry onsite, and the breakfast is what you might expect of a lite continental breakfast.  There are several dining options within a mile of the hotel.  All in all, not a bad place to spend a night while on the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r258605908-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>258605908</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Nothing fancy but good</t>
+  </si>
+  <si>
+    <t>Good value. The breakfast was not so great but ok. The only bad thing was that the ice bin had the scoop inside. Major health code violation!!...................................................................................................................................................................................................MoreShow less</t>
+  </si>
+  <si>
+    <t>Romy G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Good value. The breakfast was not so great but ok. The only bad thing was that the ice bin had the scoop inside. Major health code violation!!...................................................................................................................................................................................................More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r243794693-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>243794693</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>The most kind and good wonderful General Manager and staff</t>
+  </si>
+  <si>
+    <t>Hello hello to all the people who are visiting this area and want to have a staff who will do the BEST BEST BEST for u than please come to this Hotel and u will thank God for going there and having a very peaceful nice stay . And i do have to praise and bless the GM by his name '''''ROMY GILL ''''' and 2 of his very outstanding special good sweet devoted people to the guest and they are '''''SONDRA''''and ''''KAREN '''''and what ever i am saying here is from my very pure deepest of my heart !!!!!!!! Israel Apter ...Denver Colorado</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r239920531-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>239920531</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Okay, but technology was crap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed was very soft and relaxing, but I don't like multiple types of pillows. They should either be soft or firm, but not both.The top 3 inches of TV were blacked out and the internet connection was crap. My wireless service ran faster than the wireless internet  did. Oh, and the business center was closed down.The breakfast in the morning was good for our price ($75), but nothing special.For being suites, the room wasn't any bigger than a regular hotel room.Probably wouldn't return unless we got a good deal again. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r234032805-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>234032805</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Pet friendly for a high price</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights and for the most part everything was fine. There were stains on the sheers on the window and a big stain in the middle of floor on the carpet. It was quiet for the most part, didn't really hear the freeway at all. We did smell pot the first thing when we got on the elevator (it is Colorado after all!) The thing that upset us the most is we were charged $25.00 a day for our little dog who was with us each time we left the hotel and did not cause any trouble at all! Very high pet charge, what do they have to do for $25 a day for one dog besides nothing. I used our poop bags and pick up the poop but if we ever stay there again I can assure you I will not being that, for $25 a day an employee can do that!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights and for the most part everything was fine. There were stains on the sheers on the window and a big stain in the middle of floor on the carpet. It was quiet for the most part, didn't really hear the freeway at all. We did smell pot the first thing when we got on the elevator (it is Colorado after all!) The thing that upset us the most is we were charged $25.00 a day for our little dog who was with us each time we left the hotel and did not cause any trouble at all! Very high pet charge, what do they have to do for $25 a day for one dog besides nothing. I used our poop bags and pick up the poop but if we ever stay there again I can assure you I will not being that, for $25 a day an employee can do that!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r228882703-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>228882703</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for three nights. It is close to the interstate but I did not hear any traffic. The room was very comfortable and roomy. The room was spotless every day after the maids cleaned. I would stay here again. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r228713694-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>228713694</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>wish our stay was longer</t>
+  </si>
+  <si>
+    <t>Its a shame we could only stay one night while waiting to go to the airport.  The hotel was immaculate and staff was very welcoming and friendly. Anything we needed was attended to.We stayed all week long at different places but this was our favorite.Thanks for a nice stay! We'll be back when in the area again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r214902154-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>214902154</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>Traveled from Rapid City to pick up my grands on the 4th of July and stayed here. All was great and a special shout out to Summer who gave us great info on the local fireworks and was always pleasant and helpful. Only minus was there did not seem to be a dedicated breakfast persone but rather someone who also had housekeeping duties so a lot of suff was pretty empty. The did get the person to come over and most of it got refilled. Would definitely stay here again. Also the pool and hot tub were wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Traveled from Rapid City to pick up my grands on the 4th of July and stayed here. All was great and a special shout out to Summer who gave us great info on the local fireworks and was always pleasant and helpful. Only minus was there did not seem to be a dedicated breakfast persone but rather someone who also had housekeeping duties so a lot of suff was pretty empty. The did get the person to come over and most of it got refilled. Would definitely stay here again. Also the pool and hot tub were wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r212843704-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>212843704</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Basic hotel</t>
+  </si>
+  <si>
+    <t>My family stayed here just 1 night while at a personal event in the area.  Check-in was efficient &amp; quick.  We were offered a 2nd or 3rd floor room.  We chose a 2nd floor room.  It was acceptable - clean &amp; comfortable.  But nothing extraordinary.  My son slept on the fold-out couch and thought it was very lumpy but that is kind of expected on fold out couches.  If you are tall - the shower head will be much too low.  The shower head had been an adjustable head with different water sprays but that was broken &amp; had just one spray option.  Overall this hotel was clean, comfortable &amp; worked for us for a short stay.  Nothing extraordinary but nothing bad either.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2014</t>
+  </si>
+  <si>
+    <t>My family stayed here just 1 night while at a personal event in the area.  Check-in was efficient &amp; quick.  We were offered a 2nd or 3rd floor room.  We chose a 2nd floor room.  It was acceptable - clean &amp; comfortable.  But nothing extraordinary.  My son slept on the fold-out couch and thought it was very lumpy but that is kind of expected on fold out couches.  If you are tall - the shower head will be much too low.  The shower head had been an adjustable head with different water sprays but that was broken &amp; had just one spray option.  Overall this hotel was clean, comfortable &amp; worked for us for a short stay.  Nothing extraordinary but nothing bad either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r211751946-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>211751946</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>very helpful</t>
+  </si>
+  <si>
+    <t>i needed to book a room at this facility but they had no openings,they were booked -a front desked staff member named Martha got on the phone,found a room for me at a near by hotel and even got me a matching rate as i would have paid at her place,Martha went above and beyond to help out a guest or potential guest,very helpful, job well done, thank you will stay here on my next trip for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>i needed to book a room at this facility but they had no openings,they were booked -a front desked staff member named Martha got on the phone,found a room for me at a near by hotel and even got me a matching rate as i would have paid at her place,Martha went above and beyond to help out a guest or potential guest,very helpful, job well done, thank you will stay here on my next trip for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r203485120-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>203485120</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Ruined our spring break!</t>
+  </si>
+  <si>
+    <t>We had a fun week of spring break planned. The first night we were there my husband was seriously injured in the hotel pool. The hotel drain sliced my husband's foot so severe we had to rush him to the ER for stitches. We had to head home the next day as my husband was in severe pain. The hotel owner or manager has yet to even return my calls &amp; are trying to avoid the issue at all costs. Literally! The incident happened a month ago! I am giving the owner until Friday to contact me &amp; if he fails to do so, I have a lawyer and will be taking immediate legal action. I would not recommend staying at this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded May 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2014</t>
+  </si>
+  <si>
+    <t>We had a fun week of spring break planned. The first night we were there my husband was seriously injured in the hotel pool. The hotel drain sliced my husband's foot so severe we had to rush him to the ER for stitches. We had to head home the next day as my husband was in severe pain. The hotel owner or manager has yet to even return my calls &amp; are trying to avoid the issue at all costs. Literally! The incident happened a month ago! I am giving the owner until Friday to contact me &amp; if he fails to do so, I have a lawyer and will be taking immediate legal action. I would not recommend staying at this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r202633411-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>202633411</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>For a Comfort Suites property, the mattresses were not that comfortable and the room itself was underwhelming (especially on points). I recommend that you book a stay at the Quality Inn Central, which is where I switched to the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded April 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2014</t>
+  </si>
+  <si>
+    <t>For a Comfort Suites property, the mattresses were not that comfortable and the room itself was underwhelming (especially on points). I recommend that you book a stay at the Quality Inn Central, which is where I switched to the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r200641311-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>200641311</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Business People Beware</t>
+  </si>
+  <si>
+    <t>I almost always stay at Choice Hotels, of which Comfort Suites is a part of. I travel almost weekly on business. When I arrived at this hotel, I requested an upgrade to a larger suite, which is customary for my status with Choice Hotels. They said I was booked into their largest suite. When I went to my room, I looked at the map of rooms posted on the door and realized I received the smallest suite they had to offer.If you want a cup of coffee after the breakfast room is shut down, forget it. They don't brew coffee for guests downstairs. You have to go to your room and brew it in the rinky-dink brewer they provide.If you need the internet to work at night, good luck! It took me 1/2 hour to finally get a signal tonight. I fought the connection all week long. It would continuously drift in and out.I'm returning in a few weeks to this area. It would take an act of Congress to get me to stay here again. And, thank goodness I don't use the pool, it was shut down all week. They didn't bother to et me know before my arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>I almost always stay at Choice Hotels, of which Comfort Suites is a part of. I travel almost weekly on business. When I arrived at this hotel, I requested an upgrade to a larger suite, which is customary for my status with Choice Hotels. They said I was booked into their largest suite. When I went to my room, I looked at the map of rooms posted on the door and realized I received the smallest suite they had to offer.If you want a cup of coffee after the breakfast room is shut down, forget it. They don't brew coffee for guests downstairs. You have to go to your room and brew it in the rinky-dink brewer they provide.If you need the internet to work at night, good luck! It took me 1/2 hour to finally get a signal tonight. I fought the connection all week long. It would continuously drift in and out.I'm returning in a few weeks to this area. It would take an act of Congress to get me to stay here again. And, thank goodness I don't use the pool, it was shut down all week. They didn't bother to et me know before my arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r198268769-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>198268769</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>kids liked it</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the rooms were clean and the beds were comfortable.  The pool needs some TLC.  They also only provide hand size towels for the pool which was disappointing, I asked at the front desk for some hoping to get bigger ones but was unsuccessful.  Connecting to WI-FI was a daily challenge, most times it wouldn't let me.  Breakfast was just ok.  As long as your expectations aren't really high this would be a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the rooms were clean and the beds were comfortable.  The pool needs some TLC.  They also only provide hand size towels for the pool which was disappointing, I asked at the front desk for some hoping to get bigger ones but was unsuccessful.  Connecting to WI-FI was a daily challenge, most times it wouldn't let me.  Breakfast was just ok.  As long as your expectations aren't really high this would be a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r196482200-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>196482200</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>great place, great stay, great staff</t>
+  </si>
+  <si>
+    <t>home away from home, very clean, modern, friendly and affordable place to stay, safe with many places to visit close by and if you needed anything don't be afraid to ask Jennifer the GM who will take care of you who I understand has been there for over a decade which says allot for the place, big fancy nice place with a homey feel to itMoreShow less</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded March 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2014</t>
+  </si>
+  <si>
+    <t>home away from home, very clean, modern, friendly and affordable place to stay, safe with many places to visit close by and if you needed anything don't be afraid to ask Jennifer the GM who will take care of you who I understand has been there for over a decade which says allot for the place, big fancy nice place with a homey feel to itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r194159237-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>194159237</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Untruthful front desk staff</t>
+  </si>
+  <si>
+    <t>I booked ahead and was told the price, including two dogs, and when I arrived, in the middle of a blizzard, I got told that it was an extra $25 for the second dog. This was completely different from my phone reservation conversation, but in a blizzard, ad with the two dogs, I didn't have too much choice, did I? The room was fine, comfortable and clean, but nobody likes being ripped off.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>I booked ahead and was told the price, including two dogs, and when I arrived, in the middle of a blizzard, I got told that it was an extra $25 for the second dog. This was completely different from my phone reservation conversation, but in a blizzard, ad with the two dogs, I didn't have too much choice, did I? The room was fine, comfortable and clean, but nobody likes being ripped off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r185580581-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>185580581</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Lied To</t>
+  </si>
+  <si>
+    <t>I stayed at this place for 3 days,the first night was on rewards points and the other 2 nights I paid for . When I checked in I noticed a sign that said no vacancy. After checking in and getting to my room I just put my things in the room and left ,when I come back much later I turned the heat on and It sounded like a freight train [I'm a maintenance man at a hotel and lodge]. I decided to not say anything because I knew that they could not move to another room,need less to say I didn't get much sleep that night. I talked to the manager the next morning and she said that she would have it fixed,when I arrived back later that night I noticed that it was the same unit so I turned it on to see if it was fixed,when I turned it on the fan locked down and the unit started smoking so I unplugged it,went down to front desk and girl said that she had a note to move me,It took her about 20 min to find a room for me[she said that computer was slow] when I went to new room I found out that room was occupied,so I went back to desk,she apologized and finally got me another room ,when I talked to  general manager about situation the next morning he said he would talk to the...I stayed at this place for 3 days,the first night was on rewards points and the other 2 nights I paid for . When I checked in I noticed a sign that said no vacancy. After checking in and getting to my room I just put my things in the room and left ,when I come back much later I turned the heat on and It sounded like a freight train [I'm a maintenance man at a hotel and lodge]. I decided to not say anything because I knew that they could not move to another room,need less to say I didn't get much sleep that night. I talked to the manager the next morning and she said that she would have it fixed,when I arrived back later that night I noticed that it was the same unit so I turned it on to see if it was fixed,when I turned it on the fan locked down and the unit started smoking so I unplugged it,went down to front desk and girl said that she had a note to move me,It took her about 20 min to find a room for me[she said that computer was slow] when I went to new room I found out that room was occupied,so I went back to desk,she apologized and finally got me another room ,when I talked to  general manager about situation the next morning he said he would talk to the manager and call me in about 30 minutes[which the call never happened],the next morning when I checked out I  talked to the manager and told her about the G.M not calling me back and she said I don't know why he needed to talk to her he was the G.M and that she would call him and make sure that she would call me back about my situation but she never did as of this morning. I was not going to put this on trip Advisor because I know things happen in this industry but I don't like to be lied 2 buy the Manager and the General Manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Jess F, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this place for 3 days,the first night was on rewards points and the other 2 nights I paid for . When I checked in I noticed a sign that said no vacancy. After checking in and getting to my room I just put my things in the room and left ,when I come back much later I turned the heat on and It sounded like a freight train [I'm a maintenance man at a hotel and lodge]. I decided to not say anything because I knew that they could not move to another room,need less to say I didn't get much sleep that night. I talked to the manager the next morning and she said that she would have it fixed,when I arrived back later that night I noticed that it was the same unit so I turned it on to see if it was fixed,when I turned it on the fan locked down and the unit started smoking so I unplugged it,went down to front desk and girl said that she had a note to move me,It took her about 20 min to find a room for me[she said that computer was slow] when I went to new room I found out that room was occupied,so I went back to desk,she apologized and finally got me another room ,when I talked to  general manager about situation the next morning he said he would talk to the...I stayed at this place for 3 days,the first night was on rewards points and the other 2 nights I paid for . When I checked in I noticed a sign that said no vacancy. After checking in and getting to my room I just put my things in the room and left ,when I come back much later I turned the heat on and It sounded like a freight train [I'm a maintenance man at a hotel and lodge]. I decided to not say anything because I knew that they could not move to another room,need less to say I didn't get much sleep that night. I talked to the manager the next morning and she said that she would have it fixed,when I arrived back later that night I noticed that it was the same unit so I turned it on to see if it was fixed,when I turned it on the fan locked down and the unit started smoking so I unplugged it,went down to front desk and girl said that she had a note to move me,It took her about 20 min to find a room for me[she said that computer was slow] when I went to new room I found out that room was occupied,so I went back to desk,she apologized and finally got me another room ,when I talked to  general manager about situation the next morning he said he would talk to the manager and call me in about 30 minutes[which the call never happened],the next morning when I checked out I  talked to the manager and told her about the G.M not calling me back and she said I don't know why he needed to talk to her he was the G.M and that she would call him and make sure that she would call me back about my situation but she never did as of this morning. I was not going to put this on trip Advisor because I know things happen in this industry but I don't like to be lied 2 buy the Manager and the General Manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r184964424-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>184964424</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Not for Business Travelers</t>
+  </si>
+  <si>
+    <t>We were in the area for business.  The web site for this motel is done very well but this motel is just for shoppers.  We had a 7:00 appointment and were waiting to get breakfast -- The room was not open at 6:30 -- We followed another gentlemen in the room so we could eat and still make our appointment -- We were then scolded by the staff because we went in the room -- and it was time for it to be open -- Room to room there is a lot of noise.  The beds are very hard.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in the area for business.  The web site for this motel is done very well but this motel is just for shoppers.  We had a 7:00 appointment and were waiting to get breakfast -- The room was not open at 6:30 -- We followed another gentlemen in the room so we could eat and still make our appointment -- We were then scolded by the staff because we went in the room -- and it was time for it to be open -- Room to room there is a lot of noise.  The beds are very hard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r176921004-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>176921004</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Two day visit</t>
+  </si>
+  <si>
+    <t>We enjoyed the extra room, clean and well maintained.  Convenient location adjacent to I-25 with little to no noise from the busy interstate. Village Inn and Perkins restaurants are a short walk from the hotel. It rained our entire visit (very unusual for this area) so we didn't do much walking. Limited selection of snacks but a minor negative. Full breakfast was good with a nice variety of selections. Would definitely stay here again. Good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Trent G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded September 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2013</t>
+  </si>
+  <si>
+    <t>We enjoyed the extra room, clean and well maintained.  Convenient location adjacent to I-25 with little to no noise from the busy interstate. Village Inn and Perkins restaurants are a short walk from the hotel. It rained our entire visit (very unusual for this area) so we didn't do much walking. Limited selection of snacks but a minor negative. Full breakfast was good with a nice variety of selections. Would definitely stay here again. Good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r163126062-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>163126062</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Needs help!</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel several times and this is the last time.  It needs work as far as updating and cleanliness.  It seems to be well priced as it does get a lot of traffic.  Therefore stay at your own decision.  It is close to the Cracker Barrel restaurant and we like to eat there and can walk across the street to eat.  It just needs some help and work.  The staff was great and the breakfast was the normal one for a Choice hotel.  Parking was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Trent G, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded September 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel several times and this is the last time.  It needs work as far as updating and cleanliness.  It seems to be well priced as it does get a lot of traffic.  Therefore stay at your own decision.  It is close to the Cracker Barrel restaurant and we like to eat there and can walk across the street to eat.  It just needs some help and work.  The staff was great and the breakfast was the normal one for a Choice hotel.  Parking was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r162233398-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>162233398</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Not Quite What We Wanted</t>
+  </si>
+  <si>
+    <t>We reserved a room with two beds for the Friday night of Memorial Day Weekend. When we checked in, we got a king bed. For medical reasons, this did not work for us. The clerk tried her best to find us a different room to no avail. She was very pleasant, and did give us a $10 discount after I asked for it. So, I slept on the hide-a-bed. The mattress was very thin, and not at all comfortable. We will be returning to Denver soon, but we won't be staying at this hotel again. Great location for our needs, very convenient to lots of things as well, and near I-25.MoreShow less</t>
+  </si>
+  <si>
+    <t>We reserved a room with two beds for the Friday night of Memorial Day Weekend. When we checked in, we got a king bed. For medical reasons, this did not work for us. The clerk tried her best to find us a different room to no avail. She was very pleasant, and did give us a $10 discount after I asked for it. So, I slept on the hide-a-bed. The mattress was very thin, and not at all comfortable. We will be returning to Denver soon, but we won't be staying at this hotel again. Great location for our needs, very convenient to lots of things as well, and near I-25.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r162115987-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>162115987</t>
+  </si>
+  <si>
+    <t>Stayed to visit family</t>
+  </si>
+  <si>
+    <t>Hotel was a little farther away from them than we thought, but not the fault of the hotel. Wi Fi was very unreliable. This is something that is very important to me. Room was nice and clean and we were able to get something for breakfast. If you need to be right by I-25, then this is a good location. I would rate it as fair. I agree with another poster that states this property needs some refurbishing</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r158762387-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>158762387</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>What a Disappointment</t>
+  </si>
+  <si>
+    <t>We have stayed at a number of Comfort Suites, and have always had an excellent experience. But not this time.  This Comfort Suites was much in need of refurbishing.  The drain in the bathroom lavatory was crusted with "gunk" and smelled awful.  The staff was not rude, but certainly did not go our of their way to be cordial or friendly. The card in the room states that if you have forgotten something, they will provide the item.  We seriously were unable to get a bandaid.   When we registered, we had just spent the previous night at the Comfort Suites in Ontario, CA.  What a difference!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r154590338-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>154590338</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Nice Staff but facility needs some work</t>
+  </si>
+  <si>
+    <t>Lots of things did not work:  No remote control in the fitness center so could not turn on the TV, the treadmill was stuck on elevation level 10.  Bed was very soft.  Could not get the remote in the room to work.  The first desk clerk said he would have it looked at.  When I still could not get it to work a second clerk told me the combination of buttons that needed to be pushed to change the channelsStaff quickly addressed the clogged toilet but left the water clean up and damp carpet to us.  Staff also appeared to have addressed the distinct pot smell coming from one of the rooms, particularly since this facility is advertised as non-smoking.Lots of barefoot guests in the breakfast area-YUCK.  Shoes and shirts should be required.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Lots of things did not work:  No remote control in the fitness center so could not turn on the TV, the treadmill was stuck on elevation level 10.  Bed was very soft.  Could not get the remote in the room to work.  The first desk clerk said he would have it looked at.  When I still could not get it to work a second clerk told me the combination of buttons that needed to be pushed to change the channelsStaff quickly addressed the clogged toilet but left the water clean up and damp carpet to us.  Staff also appeared to have addressed the distinct pot smell coming from one of the rooms, particularly since this facility is advertised as non-smoking.Lots of barefoot guests in the breakfast area-YUCK.  Shoes and shirts should be required.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r152982080-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>152982080</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Worst experience ever!</t>
+  </si>
+  <si>
+    <t>I stay about 100 nights a year in hotels and this was the worst experience I have ever had.  The manager is out to scam every single dollar he can off of his guests.   They charged my card 300 dollars without explanation and now i have to go through fighting the charge and getting a new card.  They have no respect for their guests.  One of our friends is from India and married to an American man.  The night attendant who is Indian had the nerve to ask her if it was a love marriage, rather than an arranged marriage.  I can't stress the how corrupt and malicious these hotel owners.  Save yourself the headache and stay anywhere but here.  This place shouldn't be able to call itself a choice hotel.  The ladies at the front desk during the day were nice, they most know they work for a terrible owner and have some compassion for the poor guests walking through the door.Never will we or anyone I know will stay here again.  Please take my advice and do the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay about 100 nights a year in hotels and this was the worst experience I have ever had.  The manager is out to scam every single dollar he can off of his guests.   They charged my card 300 dollars without explanation and now i have to go through fighting the charge and getting a new card.  They have no respect for their guests.  One of our friends is from India and married to an American man.  The night attendant who is Indian had the nerve to ask her if it was a love marriage, rather than an arranged marriage.  I can't stress the how corrupt and malicious these hotel owners.  Save yourself the headache and stay anywhere but here.  This place shouldn't be able to call itself a choice hotel.  The ladies at the front desk during the day were nice, they most know they work for a terrible owner and have some compassion for the poor guests walking through the door.Never will we or anyone I know will stay here again.  Please take my advice and do the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r132853484-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>132853484</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Offered us a room, then took it away</t>
+  </si>
+  <si>
+    <t>Showed up here after being evacuated from a fire burning near our home. The desk clerk offered us a room but while I was getting out my ID and credit card, he gave the last room away to someone else. Very disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>lourdes j, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Showed up here after being evacuated from a fire burning near our home. The desk clerk offered us a room but while I was getting out my ID and credit card, he gave the last room away to someone else. Very disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r131845596-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>131845596</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>A non-five star, five star hotel</t>
+  </si>
+  <si>
+    <t>This isn’t what you would think of when you think of a 5-star hotel.  There is no spa, no fancy work-out room, no candy on your pillows or flower petals spread out on the ground before you – but what they DO have is excellent staff who are friendly and eager to help you, a great breakfast and a decent pool area.  Their rooms and clean and include comfortable beds, a microwave, fridge, coffeemaker, iron, blow-dryer and free wireless internet all for $89 per night.  I was here for business and I was a bit ‘afraid’ of the accommodations but I was pleasantly surprised.  After my poor experience with a Radisson hotel that was HORRIBLE, this was a welcomed change.MoreShow less</t>
+  </si>
+  <si>
+    <t>lourdes j, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded June 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2012</t>
+  </si>
+  <si>
+    <t>This isn’t what you would think of when you think of a 5-star hotel.  There is no spa, no fancy work-out room, no candy on your pillows or flower petals spread out on the ground before you – but what they DO have is excellent staff who are friendly and eager to help you, a great breakfast and a decent pool area.  Their rooms and clean and include comfortable beds, a microwave, fridge, coffeemaker, iron, blow-dryer and free wireless internet all for $89 per night.  I was here for business and I was a bit ‘afraid’ of the accommodations but I was pleasantly surprised.  After my poor experience with a Radisson hotel that was HORRIBLE, this was a welcomed change.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r130892010-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>130892010</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>I let myself be taken</t>
+  </si>
+  <si>
+    <t>After over 40 reviews, this is my third (one was remedied while there, so... second) negative one... check them out; I try to be as positive as possible.  
+For Memorial weekend, I made reservations for 3 nights at this Comfort Suites because of their website's picture of the size of the 'suites', looking/feeling more open than a regular motel room as it had a divider and sofa beside the bed(s).  When making the reservation using points from Choice Privileges, I could have had a bit more expensive 2Q room for the same points, but there was only one left available for points and I thought I'd leave a second bed for someone reserving with a second person (as I was solo)... and so I reserved the 1K room.  
+When I got to the motel, I let (MY FAULT, I KNOW) the manager even talk me out (with a sweet smile) of the 1K room with the sofa (as the sofa 'could be used for another person to sleep on' if needed), to a small (because of the elevator taking part of it) 1K room with a small stained chair with ottomon and an old grainy-pictured tv and old fridge/microwave.  I brought my stuff in and went out for needed shopping, so there wasn't time for the smallness of the room and the grainy picture of the TV  to 'get to me' until I settled in for the night.  
+The next...After over 40 reviews, this is my third (one was remedied while there, so... second) negative one... check them out; I try to be as positive as possible.  For Memorial weekend, I made reservations for 3 nights at this Comfort Suites because of their website's picture of the size of the 'suites', looking/feeling more open than a regular motel room as it had a divider and sofa beside the bed(s).  When making the reservation using points from Choice Privileges, I could have had a bit more expensive 2Q room for the same points, but there was only one left available for points and I thought I'd leave a second bed for someone reserving with a second person (as I was solo)... and so I reserved the 1K room.  When I got to the motel, I let (MY FAULT, I KNOW) the manager even talk me out (with a sweet smile) of the 1K room with the sofa (as the sofa 'could be used for another person to sleep on' if needed), to a small (because of the elevator taking part of it) 1K room with a small stained chair with ottomon and an old grainy-pictured tv and old fridge/microwave.  I brought my stuff in and went out for needed shopping, so there wasn't time for the smallness of the room and the grainy picture of the TV  to 'get to me' until I settled in for the night.  The next morning I asked front desk person how much my room rented for because it was not a suite and I was 'paying for' a suite... but she wouldn't tell me.  She said that I WAS in a suite because anything with a microwave/fridge was a suite... which I knew wasn't true and Choice Hotels customer service rep confirmed that it wasn't true, and said it had to be divided and with a sofa to be even considered a suite.  After even that one night there, I so felt I had allowed myself (yes, I felt like a wimp, walked over) to be ripped off ... and yet had to stay that second of 3 nights because I'd already used part of that second day away at an appointment.  But I wasn't going to lose a third night's points (they DO cost and have definite value)... and when I found I could get my 3rd night's points back if I cancelled, I cancelled the 3rd night at Comfort Suites and made reservations at a Motel 6 (!!!), which I actually enjoyed!   Before I left on that third morning, the new front desk person offered me a different room as one was available... but I'd already knew I'd lost the value of my points on the first two nights, had a really 'bad taste in my mouth' about the whole thing, and that didn't seem like much of a consideration... FINALLY getting the kind of room I was paying for?????I do want to be positive about one morning's breakfast... that first morning's (Saturday) breakfast had small hard boiled eggs and fruit and yogurt to go with the typical waffles, rolls, cereal, etc., while Sunday morning's was scrambled eggs/sausage... and those scrambled eggs were much better than I've had at other places.   But back to negative again... there was a warning on a sign/paper in the computer room not to stay on for more than 15 minutes or they'd charge your room (which I didn't think was possible... maybe it was for kids, but it wasn't friendly); and that just added to the bad feeling of the stay -- tho at least I had time to quickly check TripAdvisor for what the motel 6 was like!!!!!As all I kept getting was "I'm sorry" over and over, and being told 'next time be sure to ask for this' (tho why would I want a next time?) and nothing else... I knew I'd REALLY overpaid for what I got (wasted points).  However, calling Choice Hotels today to just voice my frustration... the rep offered to give me half the second night's points back from Choice Hotels customer relations department.  I DO want to remain considerate of other traveler's needs (even the hotel's) when I'm only one person taking up one bed... but I won't let myself be talked into a similar situation again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>lourdes j, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>After over 40 reviews, this is my third (one was remedied while there, so... second) negative one... check them out; I try to be as positive as possible.  
+For Memorial weekend, I made reservations for 3 nights at this Comfort Suites because of their website's picture of the size of the 'suites', looking/feeling more open than a regular motel room as it had a divider and sofa beside the bed(s).  When making the reservation using points from Choice Privileges, I could have had a bit more expensive 2Q room for the same points, but there was only one left available for points and I thought I'd leave a second bed for someone reserving with a second person (as I was solo)... and so I reserved the 1K room.  
+When I got to the motel, I let (MY FAULT, I KNOW) the manager even talk me out (with a sweet smile) of the 1K room with the sofa (as the sofa 'could be used for another person to sleep on' if needed), to a small (because of the elevator taking part of it) 1K room with a small stained chair with ottomon and an old grainy-pictured tv and old fridge/microwave.  I brought my stuff in and went out for needed shopping, so there wasn't time for the smallness of the room and the grainy picture of the TV  to 'get to me' until I settled in for the night.  
+The next...After over 40 reviews, this is my third (one was remedied while there, so... second) negative one... check them out; I try to be as positive as possible.  For Memorial weekend, I made reservations for 3 nights at this Comfort Suites because of their website's picture of the size of the 'suites', looking/feeling more open than a regular motel room as it had a divider and sofa beside the bed(s).  When making the reservation using points from Choice Privileges, I could have had a bit more expensive 2Q room for the same points, but there was only one left available for points and I thought I'd leave a second bed for someone reserving with a second person (as I was solo)... and so I reserved the 1K room.  When I got to the motel, I let (MY FAULT, I KNOW) the manager even talk me out (with a sweet smile) of the 1K room with the sofa (as the sofa 'could be used for another person to sleep on' if needed), to a small (because of the elevator taking part of it) 1K room with a small stained chair with ottomon and an old grainy-pictured tv and old fridge/microwave.  I brought my stuff in and went out for needed shopping, so there wasn't time for the smallness of the room and the grainy picture of the TV  to 'get to me' until I settled in for the night.  The next morning I asked front desk person how much my room rented for because it was not a suite and I was 'paying for' a suite... but she wouldn't tell me.  She said that I WAS in a suite because anything with a microwave/fridge was a suite... which I knew wasn't true and Choice Hotels customer service rep confirmed that it wasn't true, and said it had to be divided and with a sofa to be even considered a suite.  After even that one night there, I so felt I had allowed myself (yes, I felt like a wimp, walked over) to be ripped off ... and yet had to stay that second of 3 nights because I'd already used part of that second day away at an appointment.  But I wasn't going to lose a third night's points (they DO cost and have definite value)... and when I found I could get my 3rd night's points back if I cancelled, I cancelled the 3rd night at Comfort Suites and made reservations at a Motel 6 (!!!), which I actually enjoyed!   Before I left on that third morning, the new front desk person offered me a different room as one was available... but I'd already knew I'd lost the value of my points on the first two nights, had a really 'bad taste in my mouth' about the whole thing, and that didn't seem like much of a consideration... FINALLY getting the kind of room I was paying for?????I do want to be positive about one morning's breakfast... that first morning's (Saturday) breakfast had small hard boiled eggs and fruit and yogurt to go with the typical waffles, rolls, cereal, etc., while Sunday morning's was scrambled eggs/sausage... and those scrambled eggs were much better than I've had at other places.   But back to negative again... there was a warning on a sign/paper in the computer room not to stay on for more than 15 minutes or they'd charge your room (which I didn't think was possible... maybe it was for kids, but it wasn't friendly); and that just added to the bad feeling of the stay -- tho at least I had time to quickly check TripAdvisor for what the motel 6 was like!!!!!As all I kept getting was "I'm sorry" over and over, and being told 'next time be sure to ask for this' (tho why would I want a next time?) and nothing else... I knew I'd REALLY overpaid for what I got (wasted points).  However, calling Choice Hotels today to just voice my frustration... the rep offered to give me half the second night's points back from Choice Hotels customer relations department.  I DO want to remain considerate of other traveler's needs (even the hotel's) when I'm only one person taking up one bed... but I won't let myself be talked into a similar situation again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r125408274-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>125408274</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Great hotel for the price!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here with my family with our black lab for 3 days and I must say it exceeded our expectations. The room was very spacious with fridge,microwave and coffee maker wchich is very convenient especially when you are travelling with your family. Very quiet and easy access to different great restaurants. Everybody was very helpul and friendly. We were glad we chose this hotel and would highly recommend it! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r124607696-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>124607696</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>An Embarrassment to Choice and Comfort</t>
+  </si>
+  <si>
+    <t>I am a proud Choice and Comfort Employee.  So it pains me to write this review.
+Two good points:  Fast check in and really nice new beds.
+Wish I could say there were more but that won't happen.  
+After check in we went to the north side of the building, door closest to our room and supposed handicap parking.   The lot had been snow-plowed - except for the handicap parking.  Three to four inches of ICE covered the handicap parking spots.  ALL of them.  the sheet of ice extended about ten feet into the lot making it difficult and dangerous for people without disabilities to reach the door without slipping, but darn near impossible for issues with walking to make it without a hard fall.  Dangerous and dumb - why jeopardize people who are already fragile?
+The lights in the hall were all hanging by their wires and the doors had numbers written on paper taped on them.  I understand they were remodeling but... hand written paper numbers?  Really?  Why not just leave the old ones on until the new ones were installed?  Same for the light fixtures.  Last I knew light fixtures hanging by their wires were fire and electrical hazards.
+The room itself was nicely sized.  The furniture dated but still in good repair.  The beds were not very old.  Nice pillow tops.  I always check for bed bugs - always.  Comes from working at a hotel and...I am a proud Choice and Comfort Employee.  So it pains me to write this review.Two good points:  Fast check in and really nice new beds. Wish I could say there were more but that won't happen.  After check in we went to the north side of the building, door closest to our room and supposed handicap parking.   The lot had been snow-plowed - except for the handicap parking.  Three to four inches of ICE covered the handicap parking spots.  ALL of them.  the sheet of ice extended about ten feet into the lot making it difficult and dangerous for people without disabilities to reach the door without slipping, but darn near impossible for issues with walking to make it without a hard fall.  Dangerous and dumb - why jeopardize people who are already fragile?The lights in the hall were all hanging by their wires and the doors had numbers written on paper taped on them.  I understand they were remodeling but... hand written paper numbers?  Really?  Why not just leave the old ones on until the new ones were installed?  Same for the light fixtures.  Last I knew light fixtures hanging by their wires were fire and electrical hazards.The room itself was nicely sized.  The furniture dated but still in good repair.  The beds were not very old.  Nice pillow tops.  I always check for bed bugs - always.  Comes from working at a hotel and hearing horror stories from travelers.  So I pulled the mattress down a bit to check the seam.  The box-spring cover/dust ruffle was filthy.  Obviously not changed or cleaned in weeks.  Hair and flecks of dirt.  No bed bugs - that was a blessing.  But otherwise completely gross.   I carry my own blankets.  I slept on top of my own blankets.  The bath/shower combination constantly crackled and creaked underfoot.  The tub was obviously not seated correctly.  My husband and I joked that we were going to fall through.  The shower faucet was plumbed backwards.  Normally when you have a single control the handle turns clockwise with the temperature going from cold to hot.  This shower turned clockwise, hot to cold.  So if you put the shower on three o'clock for a nice cool shower you would end up getting par boiled.  I discovered this when I was rinsing some cream off my hands and arm.  I set it on what I thought was cool - about two o'clock and ended up scalding my arm.  Honestly who plumbs a bathroom backwards?  I'd guess the same people who install a tub without seating it properly.Stopped by the desk on my way out.  I didn't want to leave a negative review with discussing it with the person in charge.  So when I went to talk to the clerk and check out I was basically blown off.  There was no Express Checkout under the door and the clerk didn't give me a receipt.  I found that very odd but figured I'd upset him or thrown him out of routine with my complaints.  The next day I found that not the case.Checked our Visa Debit card just to make sure there were no surprises.  Unfortunately there was.  The hotel had charged our room, then the day of checkout added a $25 charge.  I called to find out what that was about and the woman said "Pet Fee."I don't travel with pets, there was no pet with me.  When I said that, she said she had to talk to someone and put me on hold.  A man who didn't introduce himself, asked my name and room number.  He then told me the fee was because a housekeeper saw me leaving the room with a large dog and that there was a lot of hair in the room.Straight up - that's a lie.  I said it bluntly too.  I don't travel with pets and certainly not 'large dogs.'  As for hair in the room - I have long (shoulder length) brown hair and my husband is BALD.  I told him all of this and he said he had to speak to housekeeping and he'd get back to me.  He didn't call me back.I called later to see if they had done anything.  I spoke to Lourdes.  She says that she can't do anything and that her GM would be in the office in a little while.  He hadn't been in all day.  That made no sense to me because I'd spoken to her GM that morning.  She said that they had probably transferred me to his cell since he was travelling.Okay then, how had he known what was in the housekeeping notes?  How had he spoken to the housekeeper?  How had he looked at my account and known anything about it?I know the software that Choice and Comfort uses - I work for them - and yes he could have accessed all that information from home or a laptop.  But NOT in the ten seconds I was on hold.My firm belief is that the GM/Owner/whatever tried to pad the bill.  Employees do get a discount.  I think that they were trying to make up for that discount with this 'bogus' pet charge.  Not happening.  I've disputed the charge at my bank.  The hotel will have to PROVE I had a pet.  Something it can't do because I didn't have one.  Security cameras will show that.Upshot is stay away from this hotel.  It is dishonest, not particularly clean, and definitely dangerous in very real physical ways.  The iced-over handicap parking and access, the exposed wires with lights hanging freely in the hall and the improper plumbing all support that point.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>lourdes j, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded February 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2012</t>
+  </si>
+  <si>
+    <t>I am a proud Choice and Comfort Employee.  So it pains me to write this review.
+Two good points:  Fast check in and really nice new beds.
+Wish I could say there were more but that won't happen.  
+After check in we went to the north side of the building, door closest to our room and supposed handicap parking.   The lot had been snow-plowed - except for the handicap parking.  Three to four inches of ICE covered the handicap parking spots.  ALL of them.  the sheet of ice extended about ten feet into the lot making it difficult and dangerous for people without disabilities to reach the door without slipping, but darn near impossible for issues with walking to make it without a hard fall.  Dangerous and dumb - why jeopardize people who are already fragile?
+The lights in the hall were all hanging by their wires and the doors had numbers written on paper taped on them.  I understand they were remodeling but... hand written paper numbers?  Really?  Why not just leave the old ones on until the new ones were installed?  Same for the light fixtures.  Last I knew light fixtures hanging by their wires were fire and electrical hazards.
+The room itself was nicely sized.  The furniture dated but still in good repair.  The beds were not very old.  Nice pillow tops.  I always check for bed bugs - always.  Comes from working at a hotel and...I am a proud Choice and Comfort Employee.  So it pains me to write this review.Two good points:  Fast check in and really nice new beds. Wish I could say there were more but that won't happen.  After check in we went to the north side of the building, door closest to our room and supposed handicap parking.   The lot had been snow-plowed - except for the handicap parking.  Three to four inches of ICE covered the handicap parking spots.  ALL of them.  the sheet of ice extended about ten feet into the lot making it difficult and dangerous for people without disabilities to reach the door without slipping, but darn near impossible for issues with walking to make it without a hard fall.  Dangerous and dumb - why jeopardize people who are already fragile?The lights in the hall were all hanging by their wires and the doors had numbers written on paper taped on them.  I understand they were remodeling but... hand written paper numbers?  Really?  Why not just leave the old ones on until the new ones were installed?  Same for the light fixtures.  Last I knew light fixtures hanging by their wires were fire and electrical hazards.The room itself was nicely sized.  The furniture dated but still in good repair.  The beds were not very old.  Nice pillow tops.  I always check for bed bugs - always.  Comes from working at a hotel and hearing horror stories from travelers.  So I pulled the mattress down a bit to check the seam.  The box-spring cover/dust ruffle was filthy.  Obviously not changed or cleaned in weeks.  Hair and flecks of dirt.  No bed bugs - that was a blessing.  But otherwise completely gross.   I carry my own blankets.  I slept on top of my own blankets.  The bath/shower combination constantly crackled and creaked underfoot.  The tub was obviously not seated correctly.  My husband and I joked that we were going to fall through.  The shower faucet was plumbed backwards.  Normally when you have a single control the handle turns clockwise with the temperature going from cold to hot.  This shower turned clockwise, hot to cold.  So if you put the shower on three o'clock for a nice cool shower you would end up getting par boiled.  I discovered this when I was rinsing some cream off my hands and arm.  I set it on what I thought was cool - about two o'clock and ended up scalding my arm.  Honestly who plumbs a bathroom backwards?  I'd guess the same people who install a tub without seating it properly.Stopped by the desk on my way out.  I didn't want to leave a negative review with discussing it with the person in charge.  So when I went to talk to the clerk and check out I was basically blown off.  There was no Express Checkout under the door and the clerk didn't give me a receipt.  I found that very odd but figured I'd upset him or thrown him out of routine with my complaints.  The next day I found that not the case.Checked our Visa Debit card just to make sure there were no surprises.  Unfortunately there was.  The hotel had charged our room, then the day of checkout added a $25 charge.  I called to find out what that was about and the woman said "Pet Fee."I don't travel with pets, there was no pet with me.  When I said that, she said she had to talk to someone and put me on hold.  A man who didn't introduce himself, asked my name and room number.  He then told me the fee was because a housekeeper saw me leaving the room with a large dog and that there was a lot of hair in the room.Straight up - that's a lie.  I said it bluntly too.  I don't travel with pets and certainly not 'large dogs.'  As for hair in the room - I have long (shoulder length) brown hair and my husband is BALD.  I told him all of this and he said he had to speak to housekeeping and he'd get back to me.  He didn't call me back.I called later to see if they had done anything.  I spoke to Lourdes.  She says that she can't do anything and that her GM would be in the office in a little while.  He hadn't been in all day.  That made no sense to me because I'd spoken to her GM that morning.  She said that they had probably transferred me to his cell since he was travelling.Okay then, how had he known what was in the housekeeping notes?  How had he spoken to the housekeeper?  How had he looked at my account and known anything about it?I know the software that Choice and Comfort uses - I work for them - and yes he could have accessed all that information from home or a laptop.  But NOT in the ten seconds I was on hold.My firm belief is that the GM/Owner/whatever tried to pad the bill.  Employees do get a discount.  I think that they were trying to make up for that discount with this 'bogus' pet charge.  Not happening.  I've disputed the charge at my bank.  The hotel will have to PROVE I had a pet.  Something it can't do because I didn't have one.  Security cameras will show that.Upshot is stay away from this hotel.  It is dishonest, not particularly clean, and definitely dangerous in very real physical ways.  The iced-over handicap parking and access, the exposed wires with lights hanging freely in the hall and the improper plumbing all support that point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r122691181-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>122691181</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>Very pleasant experience</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have now chosen to stay her twice for a few reasons.  First, yes, it's your average hotel that comes and an average rate, however they are usually willing to offer some pretty good discounts for last minute callers like myself.  The rooms are very large for a cheaper hotel, and the bed was beyond comfortable in comparission to the place I'd stayed recently.  The breakfast was actually a solid breakfast, not just bagels and cream cheese.  The hot tub was nice, the pool was simple but enough for me.  The workout room didn't have much to it, but at least had something.  The best part of the experience was the lady at the front desk, Patty.  She'd always offered us good deals, and was very nice to us when we ran into trip trouble last time.  She's very sweet and helped us out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>lourdes j, Director of Sales at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded January 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2012</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have now chosen to stay her twice for a few reasons.  First, yes, it's your average hotel that comes and an average rate, however they are usually willing to offer some pretty good discounts for last minute callers like myself.  The rooms are very large for a cheaper hotel, and the bed was beyond comfortable in comparission to the place I'd stayed recently.  The breakfast was actually a solid breakfast, not just bagels and cream cheese.  The hot tub was nice, the pool was simple but enough for me.  The workout room didn't have much to it, but at least had something.  The best part of the experience was the lady at the front desk, Patty.  She'd always offered us good deals, and was very nice to us when we ran into trip trouble last time.  She's very sweet and helped us out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r115873101-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>115873101</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>Great, friendly, we loved it!</t>
+  </si>
+  <si>
+    <t>We were not actually on a trip when we stayed at The Comfort Suites. A hot water pipe burst under our house and we spent 3 separate occasions within the last month at this hotel while our house was being repaired. We found that the staff was extremely understanding with what was happening in regards to not knowing when we needed to book a room or how long we would be there. The staff was friendly and accommodating in every way and the full hot breakfast bar really was great since we didn't have to pay for breakfast at a restaurant.We would highly recommend staying at this hotel! Our son didn't want to leave!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We were not actually on a trip when we stayed at The Comfort Suites. A hot water pipe burst under our house and we spent 3 separate occasions within the last month at this hotel while our house was being repaired. We found that the staff was extremely understanding with what was happening in regards to not knowing when we needed to book a room or how long we would be there. The staff was friendly and accommodating in every way and the full hot breakfast bar really was great since we didn't have to pay for breakfast at a restaurant.We would highly recommend staying at this hotel! Our son didn't want to leave!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r115781710-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>115781710</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t>First problem: Waiting at the front desk for hours because the computer system was down.2nd problem: Our first room had a broken tv set, the volume didn't work. So after an ordeal waiting yet again, they switched us to another room.3rd problem: The room they switched us to had another broken tv!After our repeated attempts to try to remedy the situation, hotel staff merely began to ignore our requests.Terrible service and terrible hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r115267962-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>115267962</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>not a second time</t>
+  </si>
+  <si>
+    <t>We were visiting my son and looked for some hotel close to his home. This hotel, however was nowhere near what we had experienced in Comfort Inns &amp; Suites in the past! It was not worth staying one night, while we had to stay two. The room had an odd smell, when entering, something stale, almost like of cold smoke, and it was there every time we entered the room. The toilet clogged up right away. The water supply to the tank did not shut off by itself - ever, so the whole bathroom overflowed.. That was not repaired during our stay, though the receptionist assisted immediately to unclog the toilet and soak up the water from the floor. The A/C was noisy as usual with in-room units. The "breakfast buffet" was impossible. Better do away with it altogether than putting out toast that tastes like cardboard. Just everything was of the lowest quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>lourdes j, Manager at Quality Inn &amp; Suites Denver North -Westminster, responded to this reviewResponded February 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2012</t>
+  </si>
+  <si>
+    <t>We were visiting my son and looked for some hotel close to his home. This hotel, however was nowhere near what we had experienced in Comfort Inns &amp; Suites in the past! It was not worth staying one night, while we had to stay two. The room had an odd smell, when entering, something stale, almost like of cold smoke, and it was there every time we entered the room. The toilet clogged up right away. The water supply to the tank did not shut off by itself - ever, so the whole bathroom overflowed.. That was not repaired during our stay, though the receptionist assisted immediately to unclog the toilet and soak up the water from the floor. The A/C was noisy as usual with in-room units. The "breakfast buffet" was impossible. Better do away with it altogether than putting out toast that tastes like cardboard. Just everything was of the lowest quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r68544244-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>68544244</t>
+  </si>
+  <si>
+    <t>06/24/2010</t>
+  </si>
+  <si>
+    <t>No frills hotel</t>
+  </si>
+  <si>
+    <t>The hotel was booked by my company. It was far from the city but near to my office. The rooms very big and very comfortable. It was very cold there however the hotel was centrally heated, so very good. There was complimentary breakfast but it was all cold american breakfast and there wasnt much choice. I couldnt eat it after a couple of days.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r60031110-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>60031110</t>
+  </si>
+  <si>
+    <t>03/31/2010</t>
+  </si>
+  <si>
+    <t>Could use a little updating</t>
+  </si>
+  <si>
+    <t>Like many of the chain hotels this one is a little gray around the edges and could use new carpeting, paint and general touch up. Realizing the economy is what it is, not a big surprise. I would stay there again and plan too. Price is very competetiveMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Like many of the chain hotels this one is a little gray around the edges and could use new carpeting, paint and general touch up. Realizing the economy is what it is, not a big surprise. I would stay there again and plan too. Price is very competetiveMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r59142820-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>59142820</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>When we arrived it looked like a very pleasant stay, we went up to our room and discovered we had no towels, washclothes, shampoo, or ice bucket. i had to find housekeeping to get these items.  otherwise other than that, the breakfast was real nice, and the lady behind the counter was very pleasant.  Also there was a group of hockey players, or soccer or what ever it was for young boys, which the boys were running up and down the hall way making alot of noise. but i would come still come back and stay here i know i just picked the wrong date and time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r28003276-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>28003276</t>
+  </si>
+  <si>
+    <t>04/14/2009</t>
+  </si>
+  <si>
+    <t>return customer</t>
+  </si>
+  <si>
+    <t>I have stayed here before and the rooms were nice and staff friendly.  I was back on vacation and decided to try them again and was very surprised, they had totally renovated the entire rooms and the breakfast room and food was great.  I will continue to stay with Choice Hotels and especially this one.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r22278595-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>22278595</t>
+  </si>
+  <si>
+    <t>11/28/2008</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I was sent to this hotel by my company, while I was on workman's comp, they allowed me to do "light duty" in our office for 4 months.  That was the length of my stay except for 1-2 days later every 1-2 weeks for my physicians appointments.   The employees there made me feel right at home.  My room was always clean and if I needed something extra, there was never a complaint.  I kept my personal property in the room and never had anyone go through anything.     I really enjoyed the pool and hot tub, and the breakfast was great too.  Jennifer and Rachael, the desk clerks became just like my family away from home.  And Mr. Gill and his son Romy were always friendly.  I would recommend this hotel to anyone without hesitation.  Hoping to get back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I was sent to this hotel by my company, while I was on workman's comp, they allowed me to do "light duty" in our office for 4 months.  That was the length of my stay except for 1-2 days later every 1-2 weeks for my physicians appointments.   The employees there made me feel right at home.  My room was always clean and if I needed something extra, there was never a complaint.  I kept my personal property in the room and never had anyone go through anything.     I really enjoyed the pool and hot tub, and the breakfast was great too.  Jennifer and Rachael, the desk clerks became just like my family away from home.  And Mr. Gill and his son Romy were always friendly.  I would recommend this hotel to anyone without hesitation.  Hoping to get back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d85633-r18109551-Quality_Inn_Suites_Denver_North_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>18109551</t>
+  </si>
+  <si>
+    <t>07/21/2008</t>
+  </si>
+  <si>
+    <t>never again</t>
+  </si>
+  <si>
+    <t>This hotel was clean except for  they had no towels,  our room for 4 guest had 2 room towels, I guess we should have just checked out then.  We were all in the pool and noticed no pool towels, so I went to the front dest clerk who I now no is the gm of this hotel, asked for pool towels , he told me there were some in the dryer, so he agreed to bring us some towels when the driyer was done, well he did bring down 3 pools towels (about big enough for a 5 yr old)   there were a bunch of people in the pool including my sister and her family that were also staying at the hotel.  I asked the manager if we  used our room towels would he replace them by morning, and he assured me that housekeeping would be there early in the morning.  Well they never showed up, so I called the front desk and spoke with Mary who was nice enough to offer me hand towels and wash clothes to dry off with, she told me that managament was out buying new towels ( alot of good this did me) .  We checked out and asked for our money back  , after all the hotel has a satifaction guarentee,  and Mary told me that she couldnt return money that only the manager could, but she did write me a letter saying...This hotel was clean except for  they had no towels,  our room for 4 guest had 2 room towels, I guess we should have just checked out then.  We were all in the pool and noticed no pool towels, so I went to the front dest clerk who I now no is the gm of this hotel, asked for pool towels , he told me there were some in the dryer, so he agreed to bring us some towels when the driyer was done, well he did bring down 3 pools towels (about big enough for a 5 yr old)   there were a bunch of people in the pool including my sister and her family that were also staying at the hotel.  I asked the manager if we  used our room towels would he replace them by morning, and he assured me that housekeeping would be there early in the morning.  Well they never showed up, so I called the front desk and spoke with Mary who was nice enough to offer me hand towels and wash clothes to dry off with, she told me that managament was out buying new towels ( alot of good this did me) .  We checked out and asked for our money back  , after all the hotel has a satifaction guarentee,  and Mary told me that she couldnt return money that only the manager could, but she did write me a letter saying I would be sent a check when with the manager came in.  Im still waiting for my money.  I did make a complaint with Choice Hotels as well as the comfort suites, and im still waiting on my money.  Today Jennifer  From comfort suites tells me they would not refund my money even after Mary told me they would. So at this point Im sure I will never stay at that comfort suites again, and Im even considering  not ever staying at any choice holel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was clean except for  they had no towels,  our room for 4 guest had 2 room towels, I guess we should have just checked out then.  We were all in the pool and noticed no pool towels, so I went to the front dest clerk who I now no is the gm of this hotel, asked for pool towels , he told me there were some in the dryer, so he agreed to bring us some towels when the driyer was done, well he did bring down 3 pools towels (about big enough for a 5 yr old)   there were a bunch of people in the pool including my sister and her family that were also staying at the hotel.  I asked the manager if we  used our room towels would he replace them by morning, and he assured me that housekeeping would be there early in the morning.  Well they never showed up, so I called the front desk and spoke with Mary who was nice enough to offer me hand towels and wash clothes to dry off with, she told me that managament was out buying new towels ( alot of good this did me) .  We checked out and asked for our money back  , after all the hotel has a satifaction guarentee,  and Mary told me that she couldnt return money that only the manager could, but she did write me a letter saying...This hotel was clean except for  they had no towels,  our room for 4 guest had 2 room towels, I guess we should have just checked out then.  We were all in the pool and noticed no pool towels, so I went to the front dest clerk who I now no is the gm of this hotel, asked for pool towels , he told me there were some in the dryer, so he agreed to bring us some towels when the driyer was done, well he did bring down 3 pools towels (about big enough for a 5 yr old)   there were a bunch of people in the pool including my sister and her family that were also staying at the hotel.  I asked the manager if we  used our room towels would he replace them by morning, and he assured me that housekeeping would be there early in the morning.  Well they never showed up, so I called the front desk and spoke with Mary who was nice enough to offer me hand towels and wash clothes to dry off with, she told me that managament was out buying new towels ( alot of good this did me) .  We checked out and asked for our money back  , after all the hotel has a satifaction guarentee,  and Mary told me that she couldnt return money that only the manager could, but she did write me a letter saying I would be sent a check when with the manager came in.  Im still waiting for my money.  I did make a complaint with Choice Hotels as well as the comfort suites, and im still waiting on my money.  Today Jennifer  From comfort suites tells me they would not refund my money even after Mary told me they would. So at this point Im sure I will never stay at that comfort suites again, and Im even considering  not ever staying at any choice holel again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2471,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2503,5503 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X32" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>285</v>
+      </c>
+      <c r="X33" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>294</v>
+      </c>
+      <c r="X34" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>316</v>
+      </c>
+      <c r="X38" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>330</v>
+      </c>
+      <c r="X39" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>338</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>339</v>
+      </c>
+      <c r="X40" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>362</v>
+      </c>
+      <c r="O44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>398</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K50" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>172</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>417</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>438</v>
+      </c>
+      <c r="X54" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>446</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>449</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>450</v>
+      </c>
+      <c r="J56" t="s">
+        <v>451</v>
+      </c>
+      <c r="K56" t="s">
+        <v>452</v>
+      </c>
+      <c r="L56" t="s">
+        <v>453</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>454</v>
+      </c>
+      <c r="X56" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" t="s">
+        <v>461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>462</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>463</v>
+      </c>
+      <c r="X57" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>462</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>479</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>488</v>
+      </c>
+      <c r="X60" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>493</v>
+      </c>
+      <c r="K61" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>496</v>
+      </c>
+      <c r="O61" t="s">
+        <v>172</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>497</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>506</v>
+      </c>
+      <c r="X62" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>509</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>510</v>
+      </c>
+      <c r="J63" t="s">
+        <v>511</v>
+      </c>
+      <c r="K63" t="s">
+        <v>512</v>
+      </c>
+      <c r="L63" t="s">
+        <v>513</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>505</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>506</v>
+      </c>
+      <c r="X63" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>520</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>94</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>530</v>
+      </c>
+      <c r="X65" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>529</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>540</v>
+      </c>
+      <c r="J67" t="s">
+        <v>535</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>548</v>
+      </c>
+      <c r="O68" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>554</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>558</v>
+      </c>
+      <c r="K70" t="s">
+        <v>559</v>
+      </c>
+      <c r="L70" t="s">
+        <v>560</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>562</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>563</v>
+      </c>
+      <c r="J71" t="s">
+        <v>564</v>
+      </c>
+      <c r="K71" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" t="s">
+        <v>566</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>567</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>568</v>
+      </c>
+      <c r="X71" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>571</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>572</v>
+      </c>
+      <c r="J72" t="s">
+        <v>573</v>
+      </c>
+      <c r="K72" t="s">
+        <v>574</v>
+      </c>
+      <c r="L72" t="s">
+        <v>575</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>567</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>576</v>
+      </c>
+      <c r="X72" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>579</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>580</v>
+      </c>
+      <c r="J73" t="s">
+        <v>581</v>
+      </c>
+      <c r="K73" t="s">
+        <v>582</v>
+      </c>
+      <c r="L73" t="s">
+        <v>583</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>584</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>585</v>
+      </c>
+      <c r="X73" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>588</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>589</v>
+      </c>
+      <c r="J74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s">
+        <v>591</v>
+      </c>
+      <c r="L74" t="s">
+        <v>592</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>594</v>
+      </c>
+      <c r="J75" t="s">
+        <v>595</v>
+      </c>
+      <c r="K75" t="s">
+        <v>596</v>
+      </c>
+      <c r="L75" t="s">
+        <v>597</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>598</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>599</v>
+      </c>
+      <c r="X75" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>603</v>
+      </c>
+      <c r="J76" t="s">
+        <v>604</v>
+      </c>
+      <c r="K76" t="s">
+        <v>605</v>
+      </c>
+      <c r="L76" t="s">
+        <v>606</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>607</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>608</v>
+      </c>
+      <c r="X76" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>612</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>616</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>616</v>
+      </c>
+      <c r="O78" t="s">
+        <v>172</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>616</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>628</v>
+      </c>
+      <c r="X79" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>636</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>637</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>638</v>
+      </c>
+      <c r="J81" t="s">
+        <v>639</v>
+      </c>
+      <c r="K81" t="s">
+        <v>640</v>
+      </c>
+      <c r="L81" t="s">
+        <v>641</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>642</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>628</v>
+      </c>
+      <c r="X81" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>644</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>645</v>
+      </c>
+      <c r="J82" t="s">
+        <v>646</v>
+      </c>
+      <c r="K82" t="s">
+        <v>647</v>
+      </c>
+      <c r="L82" t="s">
+        <v>648</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>642</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>654</v>
+      </c>
+      <c r="O83" t="s">
+        <v>172</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>655</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>656</v>
+      </c>
+      <c r="J84" t="s">
+        <v>657</v>
+      </c>
+      <c r="K84" t="s">
+        <v>658</v>
+      </c>
+      <c r="L84" t="s">
+        <v>659</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33965</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>662</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>663</v>
+      </c>
+      <c r="J85" t="s">
+        <v>664</v>
+      </c>
+      <c r="K85" t="s">
+        <v>665</v>
+      </c>
+      <c r="L85" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>660</v>
+      </c>
+      <c r="O85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
